--- a/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>2.56964768424524</v>
       </c>
       <c r="C2">
-        <v>0.633139971519995</v>
+        <v>0.6331399715204498</v>
       </c>
       <c r="D2">
-        <v>0.2536097654348026</v>
+        <v>0.2536097654348453</v>
       </c>
       <c r="E2">
-        <v>0.1362773392117305</v>
+        <v>0.1362773392118051</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.923408445176477</v>
+        <v>8.923408445176506</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02477661458734737</v>
+        <v>0.02477661458732427</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8680834961253225</v>
+        <v>0.868083496125287</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.186312279630044</v>
+        <v>2.186312279629988</v>
       </c>
       <c r="C3">
-        <v>0.5340526982081144</v>
+        <v>0.5340526982077733</v>
       </c>
       <c r="D3">
-        <v>0.2192348096197634</v>
+        <v>0.2192348096196639</v>
       </c>
       <c r="E3">
-        <v>0.1193136142119151</v>
+        <v>0.1193136142117837</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.776998354693404</v>
+        <v>7.776998354693234</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02201089545686052</v>
+        <v>0.02201089545688717</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.741764794435646</v>
+        <v>0.7417647944356176</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.959959796807397</v>
+        <v>1.959959796807539</v>
       </c>
       <c r="C4">
-        <v>0.4758172072706373</v>
+        <v>0.4758172072715467</v>
       </c>
       <c r="D4">
-        <v>0.1988290845978042</v>
+        <v>0.1988290845978327</v>
       </c>
       <c r="E4">
-        <v>0.1092364935968355</v>
+        <v>0.1092364935968888</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.094116968314637</v>
+        <v>7.094116968314552</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02036679065836111</v>
+        <v>0.02036679065837887</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6670867503195481</v>
+        <v>0.6670867503195197</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.869626837896277</v>
+        <v>1.869626837896249</v>
       </c>
       <c r="C5">
-        <v>0.4526295834837128</v>
+        <v>0.4526295834837413</v>
       </c>
       <c r="D5">
-        <v>0.1906624844111207</v>
+        <v>0.1906624844111633</v>
       </c>
       <c r="E5">
-        <v>0.1052020012791282</v>
+        <v>0.1052020012791779</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.820222287776915</v>
+        <v>6.820222287776829</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01970822910755032</v>
+        <v>0.0197082291075219</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6372658429446219</v>
+        <v>0.637265842944629</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854732764746217</v>
+        <v>1.854732764746586</v>
       </c>
       <c r="C6">
-        <v>0.4488091997080232</v>
+        <v>0.4488091997092738</v>
       </c>
       <c r="D6">
-        <v>0.1893146917987707</v>
+        <v>0.189314691799197</v>
       </c>
       <c r="E6">
-        <v>0.1045360751981725</v>
+        <v>0.1045360751981583</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.774983104596117</v>
+        <v>6.774983104596146</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01959950748274686</v>
+        <v>0.01959950748278594</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6323479813295734</v>
+        <v>0.6323479813295592</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.958734250083552</v>
+        <v>1.958734250084035</v>
       </c>
       <c r="C7">
         <v>0.475502423974433</v>
       </c>
       <c r="D7">
-        <v>0.198718377454739</v>
+        <v>0.1987183774547248</v>
       </c>
       <c r="E7">
-        <v>0.109181807530419</v>
+        <v>0.1091818075304118</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.090406475257879</v>
+        <v>7.090406475257936</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02035786546689167</v>
+        <v>0.02035786546684726</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.435368320017972</v>
+        <v>2.435368320017801</v>
       </c>
       <c r="C8">
-        <v>0.5983617134387202</v>
+        <v>0.5983617134382939</v>
       </c>
       <c r="D8">
-        <v>0.2415941917403757</v>
+        <v>0.2415941917404325</v>
       </c>
       <c r="E8">
-        <v>0.1303494489348758</v>
+        <v>0.1303494489349575</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.523180525746795</v>
+        <v>8.523180525746739</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02381037234481553</v>
+        <v>0.02381037234482264</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8238567758179656</v>
+        <v>0.8238567758179585</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.461233911183683</v>
+        <v>3.461233911183911</v>
       </c>
       <c r="C9">
-        <v>0.866063449752744</v>
+        <v>0.8660634497529429</v>
       </c>
       <c r="D9">
-        <v>0.3327098882016912</v>
+        <v>0.3327098882026007</v>
       </c>
       <c r="E9">
-        <v>0.1752561055428288</v>
+        <v>0.1752561055428572</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.5483780627159</v>
+        <v>11.54837806271556</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.03112660554886837</v>
+        <v>0.03112660554892521</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.161138703196265</v>
+        <v>1.161138703196272</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.30508559865558</v>
+        <v>4.305085598655523</v>
       </c>
       <c r="C10">
-        <v>1.08991739436658</v>
+        <v>1.089917394366523</v>
       </c>
       <c r="D10">
-        <v>0.4065149378808144</v>
+        <v>0.406514937880786</v>
       </c>
       <c r="E10">
-        <v>0.2115519599831686</v>
+        <v>0.2115519599832254</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.9873545131592</v>
+        <v>13.98735451315929</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03703743600317289</v>
+        <v>0.03703743600320308</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.719184441271068</v>
+        <v>4.719184441270784</v>
       </c>
       <c r="C11">
-        <v>1.201036011169919</v>
+        <v>1.201036011170174</v>
       </c>
       <c r="D11">
-        <v>0.442361873841179</v>
+        <v>0.4423618738412358</v>
       </c>
       <c r="E11">
-        <v>0.2291534773500956</v>
+        <v>0.2291534773501027</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.16971417401038</v>
+        <v>15.16971417401021</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03990397148072589</v>
+        <v>0.03990397148063529</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>4.881554742741798</v>
       </c>
       <c r="C12">
-        <v>1.244839638672175</v>
+        <v>1.244839638671579</v>
       </c>
       <c r="D12">
-        <v>0.4563512111982391</v>
+        <v>0.4563512111980685</v>
       </c>
       <c r="E12">
-        <v>0.2360174251038032</v>
+        <v>0.2360174251037392</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.63084105126183</v>
+        <v>15.63084105126154</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.04102189408186518</v>
+        <v>0.04102189408181189</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.625783891856912</v>
+        <v>1.625783891856898</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.846314853005765</v>
+        <v>4.84631485300622</v>
       </c>
       <c r="C13">
-        <v>1.235321490439844</v>
+        <v>1.23532149043956</v>
       </c>
       <c r="D13">
-        <v>0.4533182272674026</v>
+        <v>0.4533182272679994</v>
       </c>
       <c r="E13">
-        <v>0.2345295210951974</v>
+        <v>0.2345295210952187</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.53087787532456</v>
+        <v>15.53087787532507</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0407795564165081</v>
+        <v>0.04077955641650455</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.614288804454773</v>
+        <v>1.614288804454816</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.732423070213883</v>
+        <v>4.732423070214054</v>
       </c>
       <c r="C14">
         <v>1.204602519896866</v>
       </c>
       <c r="D14">
-        <v>0.4435038752785943</v>
+        <v>0.4435038752793048</v>
       </c>
       <c r="E14">
-        <v>0.2297139153438437</v>
+        <v>0.2297139153438863</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.20736323313901</v>
+        <v>15.20736323313906</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.577126107740781</v>
+        <v>1.57712610774081</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.663427250113102</v>
+        <v>4.66342725011333</v>
       </c>
       <c r="C15">
-        <v>1.186024557383007</v>
+        <v>1.186024557383291</v>
       </c>
       <c r="D15">
-        <v>0.4375493716249821</v>
+        <v>0.4375493716243568</v>
       </c>
       <c r="E15">
-        <v>0.2267915282742337</v>
+        <v>0.2267915282741555</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.0110460675694</v>
+        <v>15.01104606756996</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03951929556999723</v>
+        <v>0.03951929557000611</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.55460419178651</v>
+        <v>1.554604191786567</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.278727513197964</v>
+        <v>4.278727513198533</v>
       </c>
       <c r="C16">
-        <v>1.082873182007148</v>
+        <v>1.0828731820082</v>
       </c>
       <c r="D16">
-        <v>0.4042249750667679</v>
+        <v>0.4042249750667963</v>
       </c>
       <c r="E16">
-        <v>0.2104269223650874</v>
+        <v>0.2104269223651727</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.91178186427805</v>
+        <v>13.91178186427794</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.03685422255632531</v>
+        <v>0.03685422255630044</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.051229117577748</v>
+        <v>4.051229117578373</v>
       </c>
       <c r="C17">
-        <v>1.022215137497199</v>
+        <v>1.02221513749754</v>
       </c>
       <c r="D17">
-        <v>0.3844190712055848</v>
+        <v>0.3844190712057269</v>
       </c>
       <c r="E17">
-        <v>0.2006934129962019</v>
+        <v>0.2006934129962303</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.25791436211216</v>
+        <v>13.25791436211239</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.03526912960020212</v>
+        <v>0.03526912960013817</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.354482481223641</v>
+        <v>1.354482481223727</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.923133819702116</v>
+        <v>3.923133819701945</v>
       </c>
       <c r="C18">
-        <v>0.9881714656777092</v>
+        <v>0.9881714656771692</v>
       </c>
       <c r="D18">
-        <v>0.3732347055581897</v>
+        <v>0.3732347055579339</v>
       </c>
       <c r="E18">
-        <v>0.1951945276624656</v>
+        <v>0.1951945276624443</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.88847115641209</v>
+        <v>12.88847115641238</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.03437364661193953</v>
+        <v>0.03437364661192177</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.312544932645693</v>
+        <v>1.312544932645721</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.88020464108962</v>
+        <v>3.880204641089392</v>
       </c>
       <c r="C19">
-        <v>0.9767799215242974</v>
+        <v>0.9767799215247805</v>
       </c>
       <c r="D19">
-        <v>0.3694811966710461</v>
+        <v>0.3694811966713303</v>
       </c>
       <c r="E19">
-        <v>0.1933487030424317</v>
+        <v>0.1933487030426448</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.76444881949504</v>
+        <v>12.7644488194953</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.03407305679717609</v>
+        <v>0.03407305679715478</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.298485250600393</v>
+        <v>1.29848525060045</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>4.075153789062085</v>
       </c>
       <c r="C20">
-        <v>1.028582343970214</v>
+        <v>1.028582343969504</v>
       </c>
       <c r="D20">
-        <v>0.3865054092928233</v>
+        <v>0.3865054092926243</v>
       </c>
       <c r="E20">
-        <v>0.2017189889018667</v>
+        <v>0.2017189889019093</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.32681343283721</v>
+        <v>13.32681343283764</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03543614270554407</v>
+        <v>0.03543614270553874</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.362312801206969</v>
+        <v>1.36231280120694</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.765713478130976</v>
+        <v>4.765713478130579</v>
       </c>
       <c r="C21">
-        <v>1.213574893526726</v>
+        <v>1.21357489352684</v>
       </c>
       <c r="D21">
-        <v>0.4463745005526505</v>
+        <v>0.4463745005528494</v>
       </c>
       <c r="E21">
-        <v>0.23112259183916</v>
+        <v>0.2311225918392523</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.3019964090534</v>
+        <v>15.30199640905317</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.04022467330100987</v>
+        <v>0.04022467330089441</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.587990562668452</v>
+        <v>1.587990562668381</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.250296368643603</v>
+        <v>5.250296368643376</v>
       </c>
       <c r="C22">
-        <v>1.344812882655162</v>
+        <v>1.344812882655702</v>
       </c>
       <c r="D22">
-        <v>0.4879818605803905</v>
+        <v>0.4879818605799642</v>
       </c>
       <c r="E22">
-        <v>0.2515263095437064</v>
+        <v>0.2515263095437277</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.6729868978573</v>
+        <v>16.67298689785747</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.04354802980136441</v>
+        <v>0.04354802980147099</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.745962307115477</v>
+        <v>1.745962307115391</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.988118954695324</v>
+        <v>4.988118954695381</v>
       </c>
       <c r="C23">
-        <v>1.273660352696766</v>
+        <v>1.273660352696993</v>
       </c>
       <c r="D23">
-        <v>0.4655121253402115</v>
+        <v>0.4655121253402399</v>
       </c>
       <c r="E23">
-        <v>0.2405106966875223</v>
+        <v>0.240510696687501</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.93273395207115</v>
+        <v>15.93273395207109</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.04175373821299999</v>
+        <v>0.04175373821296624</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.660534179331833</v>
+        <v>1.66053417933179</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.064329132349485</v>
+        <v>4.064329132350053</v>
       </c>
       <c r="C24">
-        <v>1.025701174111873</v>
+        <v>1.025701174112243</v>
       </c>
       <c r="D24">
-        <v>0.3855615519745186</v>
+        <v>0.3855615519749733</v>
       </c>
       <c r="E24">
-        <v>0.2012550267704682</v>
+        <v>0.2012550267704043</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.29564420627105</v>
+        <v>13.29564420627099</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.03536058733360292</v>
+        <v>0.03536058733353542</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.358770088824187</v>
+        <v>1.358770088824215</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.170837714240406</v>
+        <v>3.170837714240463</v>
       </c>
       <c r="C25">
-        <v>0.7898053937003056</v>
+        <v>0.7898053937004477</v>
       </c>
       <c r="D25">
-        <v>0.307074482851533</v>
+        <v>0.3070744828510499</v>
       </c>
       <c r="E25">
         <v>0.1626322531922142</v>
@@ -1301,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.69921912458645</v>
+        <v>10.69921912458636</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02907052789860209</v>
+        <v>0.02907052789865716</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.065803813112282</v>
+        <v>1.065803813112261</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>2.56964768424524</v>
       </c>
       <c r="C2">
-        <v>0.6331399715204498</v>
+        <v>0.633139971519995</v>
       </c>
       <c r="D2">
-        <v>0.2536097654348453</v>
+        <v>0.2536097654348026</v>
       </c>
       <c r="E2">
-        <v>0.1362773392118051</v>
+        <v>0.1362773392117305</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.923408445176506</v>
+        <v>8.923408445176477</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02477661458732427</v>
+        <v>0.02477661458734737</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.868083496125287</v>
+        <v>0.8680834961253225</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.186312279629988</v>
+        <v>2.186312279630044</v>
       </c>
       <c r="C3">
-        <v>0.5340526982077733</v>
+        <v>0.5340526982081144</v>
       </c>
       <c r="D3">
-        <v>0.2192348096196639</v>
+        <v>0.2192348096197634</v>
       </c>
       <c r="E3">
-        <v>0.1193136142117837</v>
+        <v>0.1193136142119151</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.776998354693234</v>
+        <v>7.776998354693404</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02201089545688717</v>
+        <v>0.02201089545686052</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7417647944356176</v>
+        <v>0.741764794435646</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.959959796807539</v>
+        <v>1.959959796807397</v>
       </c>
       <c r="C4">
-        <v>0.4758172072715467</v>
+        <v>0.4758172072706373</v>
       </c>
       <c r="D4">
-        <v>0.1988290845978327</v>
+        <v>0.1988290845978042</v>
       </c>
       <c r="E4">
-        <v>0.1092364935968888</v>
+        <v>0.1092364935968355</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.094116968314552</v>
+        <v>7.094116968314637</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02036679065837887</v>
+        <v>0.02036679065836111</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6670867503195197</v>
+        <v>0.6670867503195481</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.869626837896249</v>
+        <v>1.869626837896277</v>
       </c>
       <c r="C5">
-        <v>0.4526295834837413</v>
+        <v>0.4526295834837128</v>
       </c>
       <c r="D5">
-        <v>0.1906624844111633</v>
+        <v>0.1906624844111207</v>
       </c>
       <c r="E5">
-        <v>0.1052020012791779</v>
+        <v>0.1052020012791282</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.820222287776829</v>
+        <v>6.820222287776915</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0197082291075219</v>
+        <v>0.01970822910755032</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.637265842944629</v>
+        <v>0.6372658429446219</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854732764746586</v>
+        <v>1.854732764746217</v>
       </c>
       <c r="C6">
-        <v>0.4488091997092738</v>
+        <v>0.4488091997080232</v>
       </c>
       <c r="D6">
-        <v>0.189314691799197</v>
+        <v>0.1893146917987707</v>
       </c>
       <c r="E6">
-        <v>0.1045360751981583</v>
+        <v>0.1045360751981725</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.774983104596146</v>
+        <v>6.774983104596117</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01959950748278594</v>
+        <v>0.01959950748274686</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6323479813295592</v>
+        <v>0.6323479813295734</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.958734250084035</v>
+        <v>1.958734250083552</v>
       </c>
       <c r="C7">
         <v>0.475502423974433</v>
       </c>
       <c r="D7">
-        <v>0.1987183774547248</v>
+        <v>0.198718377454739</v>
       </c>
       <c r="E7">
-        <v>0.1091818075304118</v>
+        <v>0.109181807530419</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.090406475257936</v>
+        <v>7.090406475257879</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02035786546684726</v>
+        <v>0.02035786546689167</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.435368320017801</v>
+        <v>2.435368320017972</v>
       </c>
       <c r="C8">
-        <v>0.5983617134382939</v>
+        <v>0.5983617134387202</v>
       </c>
       <c r="D8">
-        <v>0.2415941917404325</v>
+        <v>0.2415941917403757</v>
       </c>
       <c r="E8">
-        <v>0.1303494489349575</v>
+        <v>0.1303494489348758</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.523180525746739</v>
+        <v>8.523180525746795</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02381037234482264</v>
+        <v>0.02381037234481553</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8238567758179585</v>
+        <v>0.8238567758179656</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.461233911183911</v>
+        <v>3.461233911183683</v>
       </c>
       <c r="C9">
-        <v>0.8660634497529429</v>
+        <v>0.866063449752744</v>
       </c>
       <c r="D9">
-        <v>0.3327098882026007</v>
+        <v>0.3327098882016912</v>
       </c>
       <c r="E9">
-        <v>0.1752561055428572</v>
+        <v>0.1752561055428288</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.54837806271556</v>
+        <v>11.5483780627159</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.03112660554892521</v>
+        <v>0.03112660554886837</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.161138703196272</v>
+        <v>1.161138703196265</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.305085598655523</v>
+        <v>4.30508559865558</v>
       </c>
       <c r="C10">
-        <v>1.089917394366523</v>
+        <v>1.08991739436658</v>
       </c>
       <c r="D10">
-        <v>0.406514937880786</v>
+        <v>0.4065149378808144</v>
       </c>
       <c r="E10">
-        <v>0.2115519599832254</v>
+        <v>0.2115519599831686</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.98735451315929</v>
+        <v>13.9873545131592</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03703743600320308</v>
+        <v>0.03703743600317289</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.719184441270784</v>
+        <v>4.719184441271068</v>
       </c>
       <c r="C11">
-        <v>1.201036011170174</v>
+        <v>1.201036011169919</v>
       </c>
       <c r="D11">
-        <v>0.4423618738412358</v>
+        <v>0.442361873841179</v>
       </c>
       <c r="E11">
-        <v>0.2291534773501027</v>
+        <v>0.2291534773500956</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.16971417401021</v>
+        <v>15.16971417401038</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03990397148063529</v>
+        <v>0.03990397148072589</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>4.881554742741798</v>
       </c>
       <c r="C12">
-        <v>1.244839638671579</v>
+        <v>1.244839638672175</v>
       </c>
       <c r="D12">
-        <v>0.4563512111980685</v>
+        <v>0.4563512111982391</v>
       </c>
       <c r="E12">
-        <v>0.2360174251037392</v>
+        <v>0.2360174251038032</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.63084105126154</v>
+        <v>15.63084105126183</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.04102189408181189</v>
+        <v>0.04102189408186518</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.625783891856898</v>
+        <v>1.625783891856912</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.84631485300622</v>
+        <v>4.846314853005765</v>
       </c>
       <c r="C13">
-        <v>1.23532149043956</v>
+        <v>1.235321490439844</v>
       </c>
       <c r="D13">
-        <v>0.4533182272679994</v>
+        <v>0.4533182272674026</v>
       </c>
       <c r="E13">
-        <v>0.2345295210952187</v>
+        <v>0.2345295210951974</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.53087787532507</v>
+        <v>15.53087787532456</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.04077955641650455</v>
+        <v>0.0407795564165081</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.614288804454816</v>
+        <v>1.614288804454773</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.732423070214054</v>
+        <v>4.732423070213883</v>
       </c>
       <c r="C14">
         <v>1.204602519896866</v>
       </c>
       <c r="D14">
-        <v>0.4435038752793048</v>
+        <v>0.4435038752785943</v>
       </c>
       <c r="E14">
-        <v>0.2297139153438863</v>
+        <v>0.2297139153438437</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.20736323313906</v>
+        <v>15.20736323313901</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.57712610774081</v>
+        <v>1.577126107740781</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.66342725011333</v>
+        <v>4.663427250113102</v>
       </c>
       <c r="C15">
-        <v>1.186024557383291</v>
+        <v>1.186024557383007</v>
       </c>
       <c r="D15">
-        <v>0.4375493716243568</v>
+        <v>0.4375493716249821</v>
       </c>
       <c r="E15">
-        <v>0.2267915282741555</v>
+        <v>0.2267915282742337</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.01104606756996</v>
+        <v>15.0110460675694</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03951929557000611</v>
+        <v>0.03951929556999723</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.554604191786567</v>
+        <v>1.55460419178651</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.278727513198533</v>
+        <v>4.278727513197964</v>
       </c>
       <c r="C16">
-        <v>1.0828731820082</v>
+        <v>1.082873182007148</v>
       </c>
       <c r="D16">
-        <v>0.4042249750667963</v>
+        <v>0.4042249750667679</v>
       </c>
       <c r="E16">
-        <v>0.2104269223651727</v>
+        <v>0.2104269223650874</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.91178186427794</v>
+        <v>13.91178186427805</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.03685422255630044</v>
+        <v>0.03685422255632531</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.051229117578373</v>
+        <v>4.051229117577748</v>
       </c>
       <c r="C17">
-        <v>1.02221513749754</v>
+        <v>1.022215137497199</v>
       </c>
       <c r="D17">
-        <v>0.3844190712057269</v>
+        <v>0.3844190712055848</v>
       </c>
       <c r="E17">
-        <v>0.2006934129962303</v>
+        <v>0.2006934129962019</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.25791436211239</v>
+        <v>13.25791436211216</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.03526912960013817</v>
+        <v>0.03526912960020212</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.354482481223727</v>
+        <v>1.354482481223641</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.923133819701945</v>
+        <v>3.923133819702116</v>
       </c>
       <c r="C18">
-        <v>0.9881714656771692</v>
+        <v>0.9881714656777092</v>
       </c>
       <c r="D18">
-        <v>0.3732347055579339</v>
+        <v>0.3732347055581897</v>
       </c>
       <c r="E18">
-        <v>0.1951945276624443</v>
+        <v>0.1951945276624656</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.88847115641238</v>
+        <v>12.88847115641209</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.03437364661192177</v>
+        <v>0.03437364661193953</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.312544932645721</v>
+        <v>1.312544932645693</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.880204641089392</v>
+        <v>3.88020464108962</v>
       </c>
       <c r="C19">
-        <v>0.9767799215247805</v>
+        <v>0.9767799215242974</v>
       </c>
       <c r="D19">
-        <v>0.3694811966713303</v>
+        <v>0.3694811966710461</v>
       </c>
       <c r="E19">
-        <v>0.1933487030426448</v>
+        <v>0.1933487030424317</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.7644488194953</v>
+        <v>12.76444881949504</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.03407305679715478</v>
+        <v>0.03407305679717609</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.29848525060045</v>
+        <v>1.298485250600393</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>4.075153789062085</v>
       </c>
       <c r="C20">
-        <v>1.028582343969504</v>
+        <v>1.028582343970214</v>
       </c>
       <c r="D20">
-        <v>0.3865054092926243</v>
+        <v>0.3865054092928233</v>
       </c>
       <c r="E20">
-        <v>0.2017189889019093</v>
+        <v>0.2017189889018667</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.32681343283764</v>
+        <v>13.32681343283721</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03543614270553874</v>
+        <v>0.03543614270554407</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.36231280120694</v>
+        <v>1.362312801206969</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.765713478130579</v>
+        <v>4.765713478130976</v>
       </c>
       <c r="C21">
-        <v>1.21357489352684</v>
+        <v>1.213574893526726</v>
       </c>
       <c r="D21">
-        <v>0.4463745005528494</v>
+        <v>0.4463745005526505</v>
       </c>
       <c r="E21">
-        <v>0.2311225918392523</v>
+        <v>0.23112259183916</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.30199640905317</v>
+        <v>15.3019964090534</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.04022467330089441</v>
+        <v>0.04022467330100987</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.587990562668381</v>
+        <v>1.587990562668452</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.250296368643376</v>
+        <v>5.250296368643603</v>
       </c>
       <c r="C22">
-        <v>1.344812882655702</v>
+        <v>1.344812882655162</v>
       </c>
       <c r="D22">
-        <v>0.4879818605799642</v>
+        <v>0.4879818605803905</v>
       </c>
       <c r="E22">
-        <v>0.2515263095437277</v>
+        <v>0.2515263095437064</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.67298689785747</v>
+        <v>16.6729868978573</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.04354802980147099</v>
+        <v>0.04354802980136441</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.745962307115391</v>
+        <v>1.745962307115477</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.988118954695381</v>
+        <v>4.988118954695324</v>
       </c>
       <c r="C23">
-        <v>1.273660352696993</v>
+        <v>1.273660352696766</v>
       </c>
       <c r="D23">
-        <v>0.4655121253402399</v>
+        <v>0.4655121253402115</v>
       </c>
       <c r="E23">
-        <v>0.240510696687501</v>
+        <v>0.2405106966875223</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.93273395207109</v>
+        <v>15.93273395207115</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.04175373821296624</v>
+        <v>0.04175373821299999</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.66053417933179</v>
+        <v>1.660534179331833</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.064329132350053</v>
+        <v>4.064329132349485</v>
       </c>
       <c r="C24">
-        <v>1.025701174112243</v>
+        <v>1.025701174111873</v>
       </c>
       <c r="D24">
-        <v>0.3855615519749733</v>
+        <v>0.3855615519745186</v>
       </c>
       <c r="E24">
-        <v>0.2012550267704043</v>
+        <v>0.2012550267704682</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.29564420627099</v>
+        <v>13.29564420627105</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.03536058733353542</v>
+        <v>0.03536058733360292</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.358770088824215</v>
+        <v>1.358770088824187</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.170837714240463</v>
+        <v>3.170837714240406</v>
       </c>
       <c r="C25">
-        <v>0.7898053937004477</v>
+        <v>0.7898053937003056</v>
       </c>
       <c r="D25">
-        <v>0.3070744828510499</v>
+        <v>0.307074482851533</v>
       </c>
       <c r="E25">
         <v>0.1626322531922142</v>
@@ -1301,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.69921912458636</v>
+        <v>10.69921912458645</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02907052789865716</v>
+        <v>0.02907052789860209</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.065803813112261</v>
+        <v>1.065803813112282</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.56964768424524</v>
+        <v>2.568871444855517</v>
       </c>
       <c r="C2">
-        <v>0.633139971519995</v>
+        <v>0.6327544927668214</v>
       </c>
       <c r="D2">
-        <v>0.2536097654348026</v>
+        <v>0.2535727390626477</v>
       </c>
       <c r="E2">
-        <v>0.1362773392117305</v>
+        <v>0.1362422086272552</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.923408445176477</v>
+        <v>2.91538416863483</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.957922166716713</v>
       </c>
       <c r="I2">
-        <v>0.02477661458734737</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02476346760949433</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8680834961253225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.8679135343490003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.186312279630044</v>
+        <v>2.185828719280096</v>
       </c>
       <c r="C3">
-        <v>0.5340526982081144</v>
+        <v>0.5337938433711713</v>
       </c>
       <c r="D3">
-        <v>0.2192348096197634</v>
+        <v>0.2192099712906099</v>
       </c>
       <c r="E3">
-        <v>0.1193136142119151</v>
+        <v>0.1192869685090017</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.776998354693404</v>
+        <v>2.532432482422337</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.202116605344997</v>
       </c>
       <c r="I3">
-        <v>0.02201089545686052</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02200063843785571</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.741764794435646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.7416629993067261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.959959796807397</v>
+        <v>1.95961938121053</v>
       </c>
       <c r="C4">
-        <v>0.4758172072706373</v>
+        <v>0.4756230410853561</v>
       </c>
       <c r="D4">
-        <v>0.1988290845978042</v>
+        <v>0.1988103473446614</v>
       </c>
       <c r="E4">
-        <v>0.1092364935968355</v>
+        <v>0.1092146128088594</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.094116968314637</v>
+        <v>2.304252372059324</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.751946869875098</v>
       </c>
       <c r="I4">
-        <v>0.02036679065836111</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02035823374573908</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6670867503195481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6670175336035342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.869626837896277</v>
+        <v>1.869337234003922</v>
       </c>
       <c r="C5">
-        <v>0.4526295834837128</v>
+        <v>0.4524591023377411</v>
       </c>
       <c r="D5">
-        <v>0.1906624844111207</v>
+        <v>0.1906459632090503</v>
       </c>
       <c r="E5">
-        <v>0.1052020012791282</v>
+        <v>0.1051819827458154</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.820222287776915</v>
+        <v>2.212716417465714</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.571401131175293</v>
       </c>
       <c r="I5">
-        <v>0.01970822910755032</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01970035277594739</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6372658429446219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.6372080097176109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854732764746217</v>
+        <v>1.854451186525409</v>
       </c>
       <c r="C6">
-        <v>0.4488091997080232</v>
+        <v>0.4486425053399614</v>
       </c>
       <c r="D6">
-        <v>0.1893146917987707</v>
+        <v>0.1892985241963885</v>
       </c>
       <c r="E6">
-        <v>0.1045360751981725</v>
+        <v>0.1045163618987495</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.774983104596117</v>
+        <v>2.197596488211076</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.541581110269419</v>
       </c>
       <c r="I6">
-        <v>0.01959950748274686</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01959174358578331</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6323479813295734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.6322919351899685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.958734250083552</v>
+        <v>1.958394548234509</v>
       </c>
       <c r="C7">
-        <v>0.475502423974433</v>
+        <v>0.4753085873317389</v>
       </c>
       <c r="D7">
-        <v>0.198718377454739</v>
+        <v>0.1986996710917595</v>
       </c>
       <c r="E7">
-        <v>0.109181807530419</v>
+        <v>0.109159952141777</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.090406475257879</v>
+        <v>2.303012384132757</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.749500941450862</v>
       </c>
       <c r="I7">
-        <v>0.02035786546689167</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.02034931777476423</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6666822399556267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.666613183908197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.435368320017972</v>
+        <v>2.434701706321619</v>
       </c>
       <c r="C8">
-        <v>0.5983617134387202</v>
+        <v>0.5980230120305521</v>
       </c>
       <c r="D8">
-        <v>0.2415941917403757</v>
+        <v>0.2415617072578584</v>
       </c>
       <c r="E8">
-        <v>0.1303494489348758</v>
+        <v>0.1303173583076855</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.523180525746795</v>
+        <v>2.781705335515539</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.694052055070983</v>
       </c>
       <c r="I8">
-        <v>0.02381037234481553</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.02379824162862931</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8238567758179656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.823712539442468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.461233911183683</v>
+        <v>3.459536654738429</v>
       </c>
       <c r="C9">
-        <v>0.866063449752744</v>
+        <v>0.8653010184733319</v>
       </c>
       <c r="D9">
-        <v>0.3327098882016912</v>
+        <v>0.3326346684893622</v>
       </c>
       <c r="E9">
-        <v>0.1752561055428288</v>
+        <v>0.1751984092514149</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.5483780627159</v>
+        <v>3.791795851767574</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.688666794749764</v>
       </c>
       <c r="I9">
-        <v>0.03112660554886837</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.03110646516483406</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.161138703196265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.16074698831261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.30508559865558</v>
+        <v>4.302197905280991</v>
       </c>
       <c r="C10">
-        <v>1.08991739436658</v>
+        <v>1.08868784108256</v>
       </c>
       <c r="D10">
-        <v>0.4065149378808144</v>
+        <v>0.4063890701635557</v>
       </c>
       <c r="E10">
-        <v>0.2115519599831686</v>
+        <v>0.2114679491898102</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.9873545131592</v>
+        <v>4.60563860793448</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.296765131710572</v>
       </c>
       <c r="I10">
-        <v>0.03703743600317289</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03701001703144335</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.43752773882737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.436840517039968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.719184441271068</v>
+        <v>4.715591174525173</v>
       </c>
       <c r="C11">
-        <v>1.201036011169919</v>
+        <v>1.199534959300593</v>
       </c>
       <c r="D11">
-        <v>0.442361873841179</v>
+        <v>0.4422051931258579</v>
       </c>
       <c r="E11">
-        <v>0.2291534773500956</v>
+        <v>0.2290543150226014</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.16971417401038</v>
+        <v>5.000020629771882</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.07627251924157</v>
       </c>
       <c r="I11">
-        <v>0.03990397148072589</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.03987264655324374</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.572805204952374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.571939759420687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.881554742741798</v>
+        <v>4.877661608948586</v>
       </c>
       <c r="C12">
-        <v>1.244839638672175</v>
+        <v>1.243224029445003</v>
       </c>
       <c r="D12">
-        <v>0.4563512111982391</v>
+        <v>0.4561812640802998</v>
       </c>
       <c r="E12">
-        <v>0.2360174251038032</v>
+        <v>0.2359118586040339</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.63084105126183</v>
+        <v>5.153805571875296</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.38026786844654</v>
       </c>
       <c r="I12">
-        <v>0.04102189408186518</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.04098896574785016</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.625783891856912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.624842147469508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.846314853005765</v>
+        <v>4.842487941590491</v>
       </c>
       <c r="C13">
-        <v>1.235321490439844</v>
+        <v>1.233731142669711</v>
       </c>
       <c r="D13">
-        <v>0.4533182272674026</v>
+        <v>0.4531512184146322</v>
       </c>
       <c r="E13">
-        <v>0.2345295210951974</v>
+        <v>0.2344253678803625</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.53087787532456</v>
+        <v>5.120469295860801</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.31436860741832</v>
       </c>
       <c r="I13">
-        <v>0.0407795564165081</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.04074697973939756</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.614288804454773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.613363936167318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.732423070213883</v>
+        <v>4.728805854125824</v>
       </c>
       <c r="C14">
-        <v>1.204602519896866</v>
+        <v>1.20309230236407</v>
       </c>
       <c r="D14">
-        <v>0.4435038752785943</v>
+        <v>0.4433461386875024</v>
       </c>
       <c r="E14">
-        <v>0.2297139153438437</v>
+        <v>0.2296142410431301</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.20736323313901</v>
+        <v>5.012577073134025</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.10109284616601</v>
       </c>
       <c r="I14">
-        <v>0.03999524736035909</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.03996379329458755</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.577126107740781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.576254579908934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.663427250113102</v>
+        <v>4.659933887612453</v>
       </c>
       <c r="C15">
-        <v>1.186024557383007</v>
+        <v>1.184561772208554</v>
       </c>
       <c r="D15">
-        <v>0.4375493716249821</v>
+        <v>0.437397088532407</v>
       </c>
       <c r="E15">
-        <v>0.2267915282742337</v>
+        <v>0.2266945028055574</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.0110460675694</v>
+        <v>4.947101705192438</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.971669061898353</v>
       </c>
       <c r="I15">
-        <v>0.03951929556999723</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.03948851150853372</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.55460419178651</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.553764096388591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.278727513197964</v>
+        <v>4.275881933657331</v>
       </c>
       <c r="C16">
-        <v>1.082873182007148</v>
+        <v>1.081659934594626</v>
       </c>
       <c r="D16">
-        <v>0.4042249750667679</v>
+        <v>0.4041009281110917</v>
       </c>
       <c r="E16">
-        <v>0.2104269223650874</v>
+        <v>0.2103438218777924</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.91178186427805</v>
+        <v>4.580427677041314</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.246939705104865</v>
       </c>
       <c r="I16">
-        <v>0.03685422255632531</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.03682704392490344</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.428909168468167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.428232520975428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.051229117577748</v>
+        <v>4.048733515029824</v>
       </c>
       <c r="C17">
-        <v>1.022215137497199</v>
+        <v>1.021137921121579</v>
       </c>
       <c r="D17">
-        <v>0.3844190712055848</v>
+        <v>0.3843100731498623</v>
       </c>
       <c r="E17">
-        <v>0.2006934129962019</v>
+        <v>0.2006179178412353</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.25791436211216</v>
+        <v>4.362281767712545</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.815834262739259</v>
       </c>
       <c r="I17">
-        <v>0.03526912960020212</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.03524398758056257</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.354482481223641</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.353893400966456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.923133819702116</v>
+        <v>3.920824782317027</v>
       </c>
       <c r="C18">
-        <v>0.9881714656777092</v>
+        <v>0.9871671907685595</v>
       </c>
       <c r="D18">
-        <v>0.3732347055581897</v>
+        <v>0.3731336694084035</v>
       </c>
       <c r="E18">
-        <v>0.1951945276624656</v>
+        <v>0.1951231240025635</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.88847115641209</v>
+        <v>4.239013378745085</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.572249377463038</v>
       </c>
       <c r="I18">
-        <v>0.03437364661193953</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0343496230450544</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.312544932645693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.312002292754244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.88020464108962</v>
+        <v>3.87795646251675</v>
       </c>
       <c r="C19">
-        <v>0.9767799215242974</v>
+        <v>0.9757995125822276</v>
       </c>
       <c r="D19">
-        <v>0.3694811966710461</v>
+        <v>0.3693827486474532</v>
       </c>
       <c r="E19">
-        <v>0.1933487030424317</v>
+        <v>0.1932786411028644</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.76444881949504</v>
+        <v>4.197629930767988</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.490477095148606</v>
       </c>
       <c r="I19">
-        <v>0.03407305679717609</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.03404940375797949</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.298485250600393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.29795772110792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.075153789062085</v>
+        <v>4.072622510143162</v>
       </c>
       <c r="C20">
-        <v>1.028582343970214</v>
+        <v>1.027491214974219</v>
       </c>
       <c r="D20">
-        <v>0.3865054092928233</v>
+        <v>0.3863948839095457</v>
       </c>
       <c r="E20">
-        <v>0.2017189889018667</v>
+        <v>0.2016427146591226</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.32681343283721</v>
+        <v>4.385269562369473</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.861261103558547</v>
       </c>
       <c r="I20">
-        <v>0.03543614270554407</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.03541078959579735</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.362312801206969</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.361714820582208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.765713478130976</v>
+        <v>4.762035648150231</v>
       </c>
       <c r="C21">
-        <v>1.213574893526726</v>
+        <v>1.212041491474565</v>
       </c>
       <c r="D21">
-        <v>0.4463745005526505</v>
+        <v>0.4462140887579551</v>
       </c>
       <c r="E21">
-        <v>0.23112259183916</v>
+        <v>0.2310216222104842</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.3019964090534</v>
+        <v>5.044138015093552</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.1634799314096</v>
       </c>
       <c r="I21">
-        <v>0.04022467330100987</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.04019289326538278</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.587990562668452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.587103632006091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.250296368643603</v>
+        <v>5.24567126472266</v>
       </c>
       <c r="C22">
-        <v>1.344812882655162</v>
+        <v>1.342919297688269</v>
       </c>
       <c r="D22">
-        <v>0.4879818605803905</v>
+        <v>0.4877791249387826</v>
       </c>
       <c r="E22">
-        <v>0.2515263095437064</v>
+        <v>0.2514051368446104</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.6729868978573</v>
+        <v>5.501304506179451</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.06725376697653</v>
       </c>
       <c r="I22">
-        <v>0.04354802980136441</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.04351129244351348</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.745962307115477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.744833103305297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.988118954695324</v>
+        <v>4.984021663416002</v>
       </c>
       <c r="C23">
-        <v>1.273660352696766</v>
+        <v>1.271966989618562</v>
       </c>
       <c r="D23">
-        <v>0.4655121253402115</v>
+        <v>0.4653330899054708</v>
       </c>
       <c r="E23">
-        <v>0.2405106966875223</v>
+        <v>0.240400775586707</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.93273395207115</v>
+        <v>5.25447826786899</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.57928310606405</v>
       </c>
       <c r="I23">
-        <v>0.04175373821299999</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.04171973374130467</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.660534179331833</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.659540316985826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.064329132349485</v>
+        <v>4.061814027693799</v>
       </c>
       <c r="C24">
-        <v>1.025701174111873</v>
+        <v>1.02461635118442</v>
       </c>
       <c r="D24">
-        <v>0.3855615519745186</v>
+        <v>0.3854517192117441</v>
       </c>
       <c r="E24">
-        <v>0.2012550267704682</v>
+        <v>0.201179105613889</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.29564420627105</v>
+        <v>4.374870163245248</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.840710486014018</v>
       </c>
       <c r="I24">
-        <v>0.03536058733360292</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.03533532981830234</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.358770088824187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.3581761440402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.170837714240406</v>
+        <v>3.169477484239394</v>
       </c>
       <c r="C25">
-        <v>0.7898053937003056</v>
+        <v>0.7891785132032112</v>
       </c>
       <c r="D25">
-        <v>0.307074482851533</v>
+        <v>0.3070133065115925</v>
       </c>
       <c r="E25">
-        <v>0.1626322531922142</v>
+        <v>0.1625824158440778</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.69921912458645</v>
+        <v>3.508344266735548</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.128773220694853</v>
       </c>
       <c r="I25">
-        <v>0.02907052789860209</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02905272566752259</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.065803813112282</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.065494170759457</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.568871444855517</v>
+        <v>3.383109315251545</v>
       </c>
       <c r="C2">
-        <v>0.6327544927668214</v>
+        <v>0.3432173681753454</v>
       </c>
       <c r="D2">
-        <v>0.2535727390626477</v>
+        <v>0.2505995914910955</v>
       </c>
       <c r="E2">
-        <v>0.1362422086272552</v>
+        <v>0.05249106950587468</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.91538416863483</v>
+        <v>0.00085518930786382</v>
       </c>
       <c r="H2">
-        <v>5.957922166716713</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02476346760949433</v>
+        <v>0.01971946298224392</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4033090444937102</v>
       </c>
       <c r="M2">
-        <v>0.8679135343490003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.474521369024387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.185828719280096</v>
+        <v>3.007196535456615</v>
       </c>
       <c r="C3">
-        <v>0.5337938433711713</v>
+        <v>0.2900551957230846</v>
       </c>
       <c r="D3">
-        <v>0.2192099712906099</v>
+        <v>0.2342170070361504</v>
       </c>
       <c r="E3">
-        <v>0.1192869685090017</v>
+        <v>0.05073582791666809</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.532432482422337</v>
+        <v>0.0008694968605529318</v>
       </c>
       <c r="H3">
-        <v>5.202116605344997</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02200063843785571</v>
+        <v>0.01837089004218218</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3695006134002767</v>
       </c>
       <c r="M3">
-        <v>0.7416629993067261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>8.48608410578305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.95961938121053</v>
+        <v>2.788005123983567</v>
       </c>
       <c r="C4">
-        <v>0.4756230410853561</v>
+        <v>0.2589368202262676</v>
       </c>
       <c r="D4">
-        <v>0.1988103473446614</v>
+        <v>0.22462899105399</v>
       </c>
       <c r="E4">
-        <v>0.1092146128088594</v>
+        <v>0.04971268850274058</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.304252372059324</v>
+        <v>0.0008784216126702562</v>
       </c>
       <c r="H4">
-        <v>4.751946869875098</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02035823374573908</v>
+        <v>0.01756309027633662</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3498810332818465</v>
       </c>
       <c r="M4">
-        <v>0.6670175336035342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.896633497376882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.869337234003922</v>
+        <v>2.701256379001563</v>
       </c>
       <c r="C5">
-        <v>0.4524591023377411</v>
+        <v>0.2465819730360295</v>
       </c>
       <c r="D5">
-        <v>0.1906459632090503</v>
+        <v>0.2208274524056861</v>
       </c>
       <c r="E5">
-        <v>0.1051819827458154</v>
+        <v>0.04930800022881243</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.212716417465714</v>
+        <v>0.0008820992625685796</v>
       </c>
       <c r="H5">
-        <v>4.571401131175293</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01970035277594739</v>
+        <v>0.0172376158631149</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3421412600814477</v>
       </c>
       <c r="M5">
-        <v>0.6372080097176109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.660124484138379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854451186525409</v>
+        <v>2.686997906974625</v>
       </c>
       <c r="C6">
-        <v>0.4486425053399614</v>
+        <v>0.2445486384537503</v>
       </c>
       <c r="D6">
-        <v>0.1892985241963885</v>
+        <v>0.2202022472413319</v>
       </c>
       <c r="E6">
-        <v>0.1045163618987495</v>
+        <v>0.04924150216308654</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.197596488211076</v>
+        <v>0.0008827125445885421</v>
       </c>
       <c r="H6">
-        <v>4.541581110269419</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01959174358578331</v>
+        <v>0.01718375856952825</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3408706670663406</v>
       </c>
       <c r="M6">
-        <v>0.6322919351899685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.621056998660805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.958394548234509</v>
+        <v>2.786825207915854</v>
       </c>
       <c r="C7">
-        <v>0.4753085873317389</v>
+        <v>0.2587689475542163</v>
       </c>
       <c r="D7">
-        <v>0.1986996710917595</v>
+        <v>0.2245773101198267</v>
       </c>
       <c r="E7">
-        <v>0.109159952141777</v>
+        <v>0.04970718295628451</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.303012384132757</v>
+        <v>0.0008784710387391599</v>
       </c>
       <c r="H7">
-        <v>4.749500941450862</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02034931777476423</v>
+        <v>0.01755868747008993</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3497756561752112</v>
       </c>
       <c r="M7">
-        <v>0.666613183908197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.893429738237643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.434701706321619</v>
+        <v>3.250857872075983</v>
       </c>
       <c r="C8">
-        <v>0.5980230120305521</v>
+        <v>0.3245340192659114</v>
       </c>
       <c r="D8">
-        <v>0.2415617072578584</v>
+        <v>0.2448449186785524</v>
       </c>
       <c r="E8">
-        <v>0.1303173583076855</v>
+        <v>0.05187358240973872</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.781705335515539</v>
+        <v>0.0008600971056544526</v>
       </c>
       <c r="H8">
-        <v>5.694052055070983</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02379824162862931</v>
+        <v>0.01924938335858073</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3913955140500747</v>
       </c>
       <c r="M8">
-        <v>0.823712539442468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>9.129640526210039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.459536654738429</v>
+        <v>4.27167957854067</v>
       </c>
       <c r="C9">
-        <v>0.8653010184733319</v>
+        <v>0.4686581026311103</v>
       </c>
       <c r="D9">
-        <v>0.3326346684893622</v>
+        <v>0.2890038746273973</v>
       </c>
       <c r="E9">
-        <v>0.1751984092514149</v>
+        <v>0.05663355459134145</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.791795851767574</v>
+        <v>0.0008248802693008811</v>
       </c>
       <c r="H9">
-        <v>7.688666794749764</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03110646516483406</v>
+        <v>0.02280008593288407</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4837047939331427</v>
       </c>
       <c r="M9">
-        <v>1.16074698831261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.72908951649882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.302197905280991</v>
+        <v>5.121161016930557</v>
       </c>
       <c r="C10">
-        <v>1.08868784108256</v>
+        <v>0.5890959424181688</v>
       </c>
       <c r="D10">
-        <v>0.4063890701635557</v>
+        <v>0.3252845624457308</v>
       </c>
       <c r="E10">
-        <v>0.2114679491898102</v>
+        <v>0.06057604766083458</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.60563860793448</v>
+        <v>0.0007990031105082503</v>
       </c>
       <c r="H10">
-        <v>9.296765131710572</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03701001703144335</v>
+        <v>0.02568249927541366</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5608659201242574</v>
       </c>
       <c r="M10">
-        <v>1.436840517039968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.80806085815388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.715591174525173</v>
+        <v>5.538619373673612</v>
       </c>
       <c r="C11">
-        <v>1.199534959300593</v>
+        <v>0.6486331646628685</v>
       </c>
       <c r="D11">
-        <v>0.4422051931258579</v>
+        <v>0.3429555561939281</v>
       </c>
       <c r="E11">
-        <v>0.2290543150226014</v>
+        <v>0.06250525206216295</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.000020629771882</v>
+        <v>0.0007870847434526324</v>
       </c>
       <c r="H11">
-        <v>10.07627251924157</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03987264655324374</v>
+        <v>0.02709264806056844</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5988251579442618</v>
       </c>
       <c r="M11">
-        <v>1.571939759420687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.80873459302785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.877661608948586</v>
+        <v>5.702191520912379</v>
       </c>
       <c r="C12">
-        <v>1.243224029445003</v>
+        <v>0.672037380800333</v>
       </c>
       <c r="D12">
-        <v>0.4561812640802998</v>
+        <v>0.3498508467123003</v>
       </c>
       <c r="E12">
-        <v>0.2359118586040339</v>
+        <v>0.0632595452542315</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.153805571875296</v>
+        <v>0.0007825347000854321</v>
       </c>
       <c r="H12">
-        <v>10.38026786844654</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04098896574785016</v>
+        <v>0.02764527761017987</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6137006854947913</v>
       </c>
       <c r="M12">
-        <v>1.624842147469508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.1975348756007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.842487941590491</v>
+        <v>5.666699969911804</v>
       </c>
       <c r="C13">
-        <v>1.233731142669711</v>
+        <v>0.6669553666763193</v>
       </c>
       <c r="D13">
-        <v>0.4531512184146322</v>
+        <v>0.3483560984185488</v>
       </c>
       <c r="E13">
-        <v>0.2344253678803625</v>
+        <v>0.06309596002803097</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.120469295860801</v>
+        <v>0.0007835165630555324</v>
       </c>
       <c r="H13">
-        <v>10.31436860741832</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04074697973939756</v>
+        <v>0.02752534672316642</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6104730035926451</v>
       </c>
       <c r="M13">
-        <v>1.613363936167318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.11332438479843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.728805854125824</v>
+        <v>5.551959708571871</v>
       </c>
       <c r="C14">
-        <v>1.20309230236407</v>
+        <v>0.6505402598358501</v>
       </c>
       <c r="D14">
-        <v>0.4433461386875024</v>
+        <v>0.3435185174205486</v>
       </c>
       <c r="E14">
-        <v>0.2296142410431301</v>
+        <v>0.06256680439402373</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.012577073134025</v>
+        <v>0.0007867112502670546</v>
       </c>
       <c r="H14">
-        <v>10.10109284616601</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03996379329458755</v>
+        <v>0.02713771013928401</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6000383350032621</v>
       </c>
       <c r="M14">
-        <v>1.576254579908934</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.84051068808276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.659933887612453</v>
+        <v>5.482427833536974</v>
       </c>
       <c r="C15">
-        <v>1.184561772208554</v>
+        <v>0.6406033707536096</v>
       </c>
       <c r="D15">
-        <v>0.437397088532407</v>
+        <v>0.3405830951877959</v>
       </c>
       <c r="E15">
-        <v>0.2266945028055574</v>
+        <v>0.0622459166649616</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.947101705192438</v>
+        <v>0.000788662761942279</v>
       </c>
       <c r="H15">
-        <v>9.971669061898353</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03948851150853372</v>
+        <v>0.02690284988471525</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5937151254231878</v>
       </c>
       <c r="M15">
-        <v>1.553764096388591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.67475591021474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.275881933657331</v>
+        <v>5.094585716082236</v>
       </c>
       <c r="C16">
-        <v>1.081659934594626</v>
+        <v>0.5853146425622811</v>
       </c>
       <c r="D16">
-        <v>0.4041009281110917</v>
+        <v>0.3241560795471088</v>
       </c>
       <c r="E16">
-        <v>0.2103438218777924</v>
+        <v>0.06045303981590067</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.580427677041314</v>
+        <v>0.0007997777915350271</v>
       </c>
       <c r="H16">
-        <v>9.246939705104865</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03682704392490344</v>
+        <v>0.02559268450622199</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5584499320594034</v>
       </c>
       <c r="M16">
-        <v>1.428232520975428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.74392767091916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.048733515029824</v>
+        <v>4.865259812605757</v>
       </c>
       <c r="C17">
-        <v>1.021137921121579</v>
+        <v>0.5527249452947274</v>
       </c>
       <c r="D17">
-        <v>0.3843100731498623</v>
+        <v>0.3144004887252123</v>
       </c>
       <c r="E17">
-        <v>0.2006179178412353</v>
+        <v>0.05939064024875051</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.362281767712545</v>
+        <v>0.0008065488603602807</v>
       </c>
       <c r="H17">
-        <v>8.815834262739259</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03524398758056257</v>
+        <v>0.0248170695411094</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5376055966835054</v>
       </c>
       <c r="M17">
-        <v>1.353893400966456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.18822551764222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.920824782317027</v>
+        <v>4.73620373965548</v>
       </c>
       <c r="C18">
-        <v>0.9871671907685595</v>
+        <v>0.5344145096839554</v>
       </c>
       <c r="D18">
-        <v>0.3731336694084035</v>
+        <v>0.3088965793574232</v>
       </c>
       <c r="E18">
-        <v>0.1951231240025635</v>
+        <v>0.05879204975939167</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.239013378745085</v>
+        <v>0.0008104307178586752</v>
       </c>
       <c r="H18">
-        <v>8.572249377463038</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0343496230450544</v>
+        <v>0.02437994614813732</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5258790349522542</v>
       </c>
       <c r="M18">
-        <v>1.312002292754244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.8736304214309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.87795646251675</v>
+        <v>4.692968985023299</v>
       </c>
       <c r="C19">
-        <v>0.9757995125822276</v>
+        <v>0.5282848429135925</v>
       </c>
       <c r="D19">
-        <v>0.3693827486474532</v>
+        <v>0.3070505076444618</v>
       </c>
       <c r="E19">
-        <v>0.1932786411028644</v>
+        <v>0.05859140663868345</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.197629930767988</v>
+        <v>0.0008117432903085334</v>
       </c>
       <c r="H19">
-        <v>8.490477095148606</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03404940375797949</v>
+        <v>0.02423337135344639</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5219513073877664</v>
       </c>
       <c r="M19">
-        <v>1.29795772110792</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.76792521055384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.072622510143162</v>
+        <v>4.889370722026968</v>
       </c>
       <c r="C20">
-        <v>1.027491214974219</v>
+        <v>0.5561480928794538</v>
       </c>
       <c r="D20">
-        <v>0.3863948839095457</v>
+        <v>0.3154276544950818</v>
       </c>
       <c r="E20">
-        <v>0.2016427146591226</v>
+        <v>0.05950241606766582</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.385269562369473</v>
+        <v>0.0008058294831198948</v>
       </c>
       <c r="H20">
-        <v>8.861261103558547</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03541078959579735</v>
+        <v>0.02489867634275811</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.539796753861026</v>
       </c>
       <c r="M20">
-        <v>1.361714820582208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.24684758118113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.762035648150231</v>
+        <v>5.585503220654516</v>
       </c>
       <c r="C21">
-        <v>1.212041491474565</v>
+        <v>0.6553368356296403</v>
       </c>
       <c r="D21">
-        <v>0.4462140887579551</v>
+        <v>0.3449335753530676</v>
       </c>
       <c r="E21">
-        <v>0.2310216222104842</v>
+        <v>0.06272154691552601</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.044138015093552</v>
+        <v>0.0007857740371824451</v>
       </c>
       <c r="H21">
-        <v>10.1634799314096</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04019289326538278</v>
+        <v>0.02725102143646296</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.603088817134747</v>
       </c>
       <c r="M21">
-        <v>1.587103632006091</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.92035681888433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.24567126472266</v>
+        <v>6.07314782383196</v>
       </c>
       <c r="C22">
-        <v>1.342919297688269</v>
+        <v>0.7252863455904901</v>
       </c>
       <c r="D22">
-        <v>0.4877791249387826</v>
+        <v>0.3654280517635016</v>
       </c>
       <c r="E22">
-        <v>0.2514051368446104</v>
+        <v>0.06496662634036809</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.501304506179451</v>
+        <v>0.0007724416919407618</v>
       </c>
       <c r="H22">
-        <v>11.06725376697653</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04351129244351348</v>
+        <v>0.02890004992116069</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6474347966251202</v>
       </c>
       <c r="M22">
-        <v>1.744833103305297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>16.07289788718964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.984021663416002</v>
+        <v>5.809479887472662</v>
       </c>
       <c r="C23">
-        <v>1.271966989618562</v>
+        <v>0.6874130819764446</v>
       </c>
       <c r="D23">
-        <v>0.4653330899054708</v>
+        <v>0.3543647110995636</v>
       </c>
       <c r="E23">
-        <v>0.240400775586707</v>
+        <v>0.06375377945524008</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.25447826786899</v>
+        <v>0.0007795842720320636</v>
       </c>
       <c r="H23">
-        <v>10.57928310606405</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04171973374130467</v>
+        <v>0.02800792297370869</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6234576850873168</v>
       </c>
       <c r="M23">
-        <v>1.659540316985826</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.45159986995492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.061814027693799</v>
+        <v>4.878461574742914</v>
       </c>
       <c r="C24">
-        <v>1.02461635118442</v>
+        <v>0.5545991741593355</v>
       </c>
       <c r="D24">
-        <v>0.3854517192117441</v>
+        <v>0.3149629492930615</v>
       </c>
       <c r="E24">
-        <v>0.201179105613889</v>
+        <v>0.05945184453304897</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.374870163245248</v>
+        <v>0.0008061547464132303</v>
       </c>
       <c r="H24">
-        <v>8.840710486014018</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03533532981830234</v>
+        <v>0.02486175485115183</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.538805337311544</v>
       </c>
       <c r="M24">
-        <v>1.3581761440402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.22032947087891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.169477484239394</v>
+        <v>3.980732996796405</v>
       </c>
       <c r="C25">
-        <v>0.7891785132032112</v>
+        <v>0.4275630227078295</v>
       </c>
       <c r="D25">
-        <v>0.3070133065115925</v>
+        <v>0.2764795821370285</v>
       </c>
       <c r="E25">
-        <v>0.1625824158440778</v>
+        <v>0.05527881939791257</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.508344266735548</v>
+        <v>0.0008343661810861214</v>
       </c>
       <c r="H25">
-        <v>7.128773220694853</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02905272566752259</v>
+        <v>0.02180255030514999</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4573291083534343</v>
       </c>
       <c r="M25">
-        <v>1.065494170759457</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>11.00137720631301</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.383109315251545</v>
+        <v>1.435307849668277</v>
       </c>
       <c r="C2">
-        <v>0.3432173681753454</v>
+        <v>0.2301174148993681</v>
       </c>
       <c r="D2">
-        <v>0.2505995914910955</v>
+        <v>0.5482103786317509</v>
       </c>
       <c r="E2">
-        <v>0.05249106950587468</v>
+        <v>0.2444474089093873</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00085518930786382</v>
+        <v>1.566456445105587</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9830133373862679</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01971946298224392</v>
+        <v>0.1445855451761133</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.570724194418119</v>
       </c>
       <c r="L2">
-        <v>0.4033090444937102</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.496458740657133</v>
       </c>
       <c r="O2">
-        <v>9.474521369024387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.007196535456615</v>
+        <v>1.251385398291234</v>
       </c>
       <c r="C3">
-        <v>0.2900551957230846</v>
+        <v>0.1990657825964917</v>
       </c>
       <c r="D3">
-        <v>0.2342170070361504</v>
+        <v>0.4946516477725993</v>
       </c>
       <c r="E3">
-        <v>0.05073582791666809</v>
+        <v>0.2192369634561402</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008694968605529318</v>
+        <v>1.472318784380221</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.947884421926517</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01837089004218218</v>
+        <v>0.128669774494945</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.366635772425582</v>
       </c>
       <c r="L3">
-        <v>0.3695006134002767</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.528025634732373</v>
       </c>
       <c r="O3">
-        <v>8.48608410578305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.788005123983567</v>
+        <v>1.140101641740557</v>
       </c>
       <c r="C4">
-        <v>0.2589368202262676</v>
+        <v>0.1802652011207755</v>
       </c>
       <c r="D4">
-        <v>0.22462899105399</v>
+        <v>0.4625914601406862</v>
       </c>
       <c r="E4">
-        <v>0.04971268850274058</v>
+        <v>0.2041356030013475</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008784216126702562</v>
+        <v>1.417354345320916</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9278728842758284</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01756309027633662</v>
+        <v>0.119128304799105</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.243127878428737</v>
       </c>
       <c r="L4">
-        <v>0.3498810332818465</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.549225938009748</v>
       </c>
       <c r="O4">
-        <v>7.896633497376882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.701256379001563</v>
+        <v>1.095118559217298</v>
       </c>
       <c r="C5">
-        <v>0.2465819730360295</v>
+        <v>0.1726615991219234</v>
       </c>
       <c r="D5">
-        <v>0.2208274524056861</v>
+        <v>0.449715988104856</v>
       </c>
       <c r="E5">
-        <v>0.04930800022881243</v>
+        <v>0.1980679667848619</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008820992625685796</v>
+        <v>1.395616150510051</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9200854560011749</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0172376158631149</v>
+        <v>0.1152924421378572</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.193196670833174</v>
       </c>
       <c r="L5">
-        <v>0.3421412600814477</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.558303132392247</v>
       </c>
       <c r="O5">
-        <v>7.660124484138379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.686997906974625</v>
+        <v>1.087669921331639</v>
       </c>
       <c r="C6">
-        <v>0.2445486384537503</v>
+        <v>0.171402268964755</v>
       </c>
       <c r="D6">
-        <v>0.2202022472413319</v>
+        <v>0.4475889531630912</v>
       </c>
       <c r="E6">
-        <v>0.04924150216308654</v>
+        <v>0.1970654081083794</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008827125445885421</v>
+        <v>1.392044939098852</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9188138744624297</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01718375856952825</v>
+        <v>0.1146585039872292</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.184928235111698</v>
       </c>
       <c r="L6">
-        <v>0.3408706670663406</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.559836304386337</v>
       </c>
       <c r="O6">
-        <v>7.621056998660805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.786825207915854</v>
+        <v>1.13949356317238</v>
       </c>
       <c r="C7">
-        <v>0.2587689475542163</v>
+        <v>0.1801624336059007</v>
       </c>
       <c r="D7">
-        <v>0.2245773101198267</v>
+        <v>0.4624170735675932</v>
       </c>
       <c r="E7">
-        <v>0.04970718295628451</v>
+        <v>0.2040534344621818</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008784710387391599</v>
+        <v>1.417058570379055</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9277664033915158</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01755868747008993</v>
+        <v>0.119076368222629</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.242452940922959</v>
       </c>
       <c r="L7">
-        <v>0.3497756561752112</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.549346607645077</v>
       </c>
       <c r="O7">
-        <v>7.893429738237643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.250857872075983</v>
+        <v>1.371520010649448</v>
       </c>
       <c r="C8">
-        <v>0.3245340192659114</v>
+        <v>0.2193501783096963</v>
       </c>
       <c r="D8">
-        <v>0.2448449186785524</v>
+        <v>0.5295607268646449</v>
       </c>
       <c r="E8">
-        <v>0.05187358240973872</v>
+        <v>0.2356709316550436</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008600971056544526</v>
+        <v>1.533375957645774</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.9705624027141937</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01924938335858073</v>
+        <v>0.1390463079454989</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.499946362460435</v>
       </c>
       <c r="L8">
-        <v>0.3913955140500747</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.506953613053739</v>
       </c>
       <c r="O8">
-        <v>9.129640526210039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.27167957854067</v>
+        <v>1.841938485483183</v>
       </c>
       <c r="C9">
-        <v>0.4686581026311103</v>
+        <v>0.298743708697458</v>
       </c>
       <c r="D9">
-        <v>0.2890038746273973</v>
+        <v>0.6686718956324285</v>
       </c>
       <c r="E9">
-        <v>0.05663355459134145</v>
+        <v>0.3011034741268759</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008248802693008811</v>
+        <v>1.786587898751293</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.06804031797347</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02280008593288407</v>
+        <v>0.1803203512553608</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.021875559411427</v>
       </c>
       <c r="L9">
-        <v>0.4837047939331427</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.439192187702886</v>
       </c>
       <c r="O9">
-        <v>11.72908951649882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.121161016930557</v>
+        <v>2.200576417743662</v>
       </c>
       <c r="C10">
-        <v>0.5890959424181688</v>
+        <v>0.359308671507705</v>
       </c>
       <c r="D10">
-        <v>0.3252845624457308</v>
+        <v>0.776789400605935</v>
       </c>
       <c r="E10">
-        <v>0.06057604766083458</v>
+        <v>0.3519315279165554</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007990031105082503</v>
+        <v>1.991928263065546</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.149752398912369</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02568249927541366</v>
+        <v>0.2123648251132693</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.419808035013403</v>
       </c>
       <c r="L10">
-        <v>0.5608659201242574</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.400223540248177</v>
       </c>
       <c r="O10">
-        <v>13.80806085815388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.538619373673612</v>
+        <v>2.367462751725782</v>
       </c>
       <c r="C11">
-        <v>0.6486331646628685</v>
+        <v>0.3875183235248869</v>
       </c>
       <c r="D11">
-        <v>0.3429555561939281</v>
+        <v>0.8276028382423419</v>
       </c>
       <c r="E11">
-        <v>0.06250525206216295</v>
+        <v>0.3758188994910938</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007870847434526324</v>
+        <v>2.090535409928123</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.189576374839504</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02709264806056844</v>
+        <v>0.2274247697997112</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.605010238331545</v>
       </c>
       <c r="L11">
-        <v>0.5988251579442618</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.385207779623187</v>
       </c>
       <c r="O11">
-        <v>14.80873459302785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.702191520912379</v>
+        <v>2.4312802806067</v>
       </c>
       <c r="C12">
-        <v>0.672037380800333</v>
+        <v>0.3983113849838844</v>
       </c>
       <c r="D12">
-        <v>0.3498508467123003</v>
+        <v>0.8471111219671741</v>
       </c>
       <c r="E12">
-        <v>0.0632595452542315</v>
+        <v>0.3849900358977933</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007825347000854321</v>
+        <v>2.128716422861743</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.205081198695069</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02764527761017987</v>
+        <v>0.2332071655873875</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.675838685355075</v>
       </c>
       <c r="L12">
-        <v>0.6137006854947913</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.379946051686517</v>
       </c>
       <c r="O12">
-        <v>15.1975348756007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.666699969911804</v>
+        <v>2.4175069755035</v>
       </c>
       <c r="C13">
-        <v>0.6669553666763193</v>
+        <v>0.3959817090134266</v>
       </c>
       <c r="D13">
-        <v>0.3483560984185488</v>
+        <v>0.8428972728882798</v>
       </c>
       <c r="E13">
-        <v>0.06309596002803097</v>
+        <v>0.3830090214270925</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007835165630555324</v>
+        <v>2.120454474867216</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.20172235062202</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02752534672316642</v>
+        <v>0.2319581134258755</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.66055191162684</v>
       </c>
       <c r="L13">
-        <v>0.6104730035926451</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.381059791272719</v>
       </c>
       <c r="O13">
-        <v>15.11332438479843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.551959708571871</v>
+        <v>2.372700096254562</v>
       </c>
       <c r="C14">
-        <v>0.6505402598358501</v>
+        <v>0.3884039587934751</v>
       </c>
       <c r="D14">
-        <v>0.3435185174205486</v>
+        <v>0.8292022634386171</v>
       </c>
       <c r="E14">
-        <v>0.06256680439402373</v>
+        <v>0.3765708045331877</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007867112502670546</v>
+        <v>2.093659166190605</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.190843198907686</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02713771013928401</v>
+        <v>0.2278988353514819</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.610822798024998</v>
       </c>
       <c r="L14">
-        <v>0.6000383350032621</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.38476617651358</v>
       </c>
       <c r="O14">
-        <v>14.84051068808276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.482427833536974</v>
+        <v>2.345338130656501</v>
       </c>
       <c r="C15">
-        <v>0.6406033707536096</v>
+        <v>0.3837772878445946</v>
       </c>
       <c r="D15">
-        <v>0.3405830951877959</v>
+        <v>0.8208493662005196</v>
       </c>
       <c r="E15">
-        <v>0.0622459166649616</v>
+        <v>0.3726440427368516</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000788662761942279</v>
+        <v>2.077358684934893</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.184236020392916</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02690284988471525</v>
+        <v>0.2254230854243673</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.58045597376514</v>
       </c>
       <c r="L15">
-        <v>0.5937151254231878</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.387092806870498</v>
       </c>
       <c r="O15">
-        <v>14.67475591021474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.094585716082236</v>
+        <v>2.189752198953613</v>
       </c>
       <c r="C16">
-        <v>0.5853146425622811</v>
+        <v>0.3574796798152988</v>
       </c>
       <c r="D16">
-        <v>0.3241560795471088</v>
+        <v>0.7735040777452014</v>
       </c>
       <c r="E16">
-        <v>0.06045303981590067</v>
+        <v>0.3503871163095411</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007997777915350271</v>
+        <v>1.985596376963798</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.147206749229667</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02559268450622199</v>
+        <v>0.2113911749697905</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.407796669201844</v>
       </c>
       <c r="L16">
-        <v>0.5584499320594034</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.401262279228646</v>
       </c>
       <c r="O16">
-        <v>13.74392767091916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.865259812605757</v>
+        <v>2.095319859762071</v>
       </c>
       <c r="C17">
-        <v>0.5527249452947274</v>
+        <v>0.3415264030864194</v>
       </c>
       <c r="D17">
-        <v>0.3144004887252123</v>
+        <v>0.7448984663364513</v>
       </c>
       <c r="E17">
-        <v>0.05939064024875051</v>
+        <v>0.3369397264185494</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008065488603602807</v>
+        <v>1.930697489943782</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.125199000531865</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0248170695411094</v>
+        <v>0.2029135421489343</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.303011141619237</v>
       </c>
       <c r="L17">
-        <v>0.5376055966835054</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.410672609528575</v>
       </c>
       <c r="O17">
-        <v>13.18822551764222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.73620373965548</v>
+        <v>2.041351421764432</v>
       </c>
       <c r="C18">
-        <v>0.5344145096839554</v>
+        <v>0.3324114080909908</v>
       </c>
       <c r="D18">
-        <v>0.3088965793574232</v>
+        <v>0.7285966188793509</v>
       </c>
       <c r="E18">
-        <v>0.05879204975939167</v>
+        <v>0.3292761717675532</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008104307178586752</v>
+        <v>1.899604096353755</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.11278758637124</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02437994614813732</v>
+        <v>0.1980822040975028</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.243128513748189</v>
       </c>
       <c r="L18">
-        <v>0.5258790349522542</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.416338099567312</v>
       </c>
       <c r="O18">
-        <v>12.8736304214309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.692968985023299</v>
+        <v>2.023135754459872</v>
       </c>
       <c r="C19">
-        <v>0.5282848429135925</v>
+        <v>0.3293352294141698</v>
       </c>
       <c r="D19">
-        <v>0.3070505076444618</v>
+        <v>0.7231021695564266</v>
       </c>
       <c r="E19">
-        <v>0.05859140663868345</v>
+        <v>0.3266931794873997</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008117432903085334</v>
+        <v>1.889156680074706</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.108626461171554</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02423337135344639</v>
+        <v>0.1964537956866508</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.222917056303743</v>
       </c>
       <c r="L19">
-        <v>0.5219513073877664</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.418298784708057</v>
       </c>
       <c r="O19">
-        <v>12.76792521055384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.889370722026968</v>
+        <v>2.105335900750617</v>
       </c>
       <c r="C20">
-        <v>0.5561480928794538</v>
+        <v>0.3432182426300017</v>
       </c>
       <c r="D20">
-        <v>0.3154276544950818</v>
+        <v>0.7479276987290007</v>
       </c>
       <c r="E20">
-        <v>0.05950241606766582</v>
+        <v>0.3383637663408123</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008058294831198948</v>
+        <v>1.936490937974156</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.127515917860308</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02489867634275811</v>
+        <v>0.2038112972293078</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.31412500521725</v>
       </c>
       <c r="L20">
-        <v>0.539796753861026</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.409644449769189</v>
       </c>
       <c r="O20">
-        <v>13.24684758118113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.585503220654516</v>
+        <v>2.385843390944046</v>
       </c>
       <c r="C21">
-        <v>0.6553368356296403</v>
+        <v>0.3906265872427639</v>
       </c>
       <c r="D21">
-        <v>0.3449335753530676</v>
+        <v>0.8332173196670283</v>
       </c>
       <c r="E21">
-        <v>0.06272154691552601</v>
+        <v>0.3784583271428374</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007857740371824451</v>
+        <v>2.101505988598632</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.194026787437082</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02725102143646296</v>
+        <v>0.2290888993916411</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.625409733629056</v>
       </c>
       <c r="L21">
-        <v>0.603088817134747</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.383665708262356</v>
       </c>
       <c r="O21">
-        <v>14.92035681888433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.07314782383196</v>
+        <v>2.572838102195078</v>
       </c>
       <c r="C22">
-        <v>0.7252863455904901</v>
+        <v>0.4222645973258636</v>
       </c>
       <c r="D22">
-        <v>0.3654280517635016</v>
+        <v>0.8905288520226122</v>
       </c>
       <c r="E22">
-        <v>0.06496662634036809</v>
+        <v>0.4054024306438251</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007724416919407618</v>
+        <v>2.214303654915199</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.239992349606212</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02890004992116069</v>
+        <v>0.2460783188073492</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.832963364228419</v>
       </c>
       <c r="L22">
-        <v>0.6474347966251202</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.369179840386067</v>
       </c>
       <c r="O22">
-        <v>16.07289788718964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.809479887472662</v>
+        <v>2.47266999436988</v>
       </c>
       <c r="C23">
-        <v>0.6874130819764446</v>
+        <v>0.4053131820414251</v>
       </c>
       <c r="D23">
-        <v>0.3543647110995636</v>
+        <v>0.8597854894485977</v>
       </c>
       <c r="E23">
-        <v>0.06375377945524008</v>
+        <v>0.3909485881585866</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007795842720320636</v>
+        <v>2.153614830241736</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.215215761889965</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02800792297370869</v>
+        <v>0.2369641873268762</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.721777672748914</v>
       </c>
       <c r="L23">
-        <v>0.6234576850873168</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.376670682448562</v>
       </c>
       <c r="O23">
-        <v>15.45159986995492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.878461574742914</v>
+        <v>2.100806651946129</v>
       </c>
       <c r="C24">
-        <v>0.5545991741593355</v>
+        <v>0.3424531863761331</v>
       </c>
       <c r="D24">
-        <v>0.3149629492930615</v>
+        <v>0.746557736917282</v>
       </c>
       <c r="E24">
-        <v>0.05945184453304897</v>
+        <v>0.337719748699854</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008061547464132303</v>
+        <v>1.933870267126821</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.126467691641722</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02486175485115183</v>
+        <v>0.2034052903231895</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.309099313331359</v>
       </c>
       <c r="L24">
-        <v>0.538805337311544</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.410108487952414</v>
       </c>
       <c r="O24">
-        <v>13.22032947087891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.980732996796405</v>
+        <v>1.712673845677898</v>
       </c>
       <c r="C25">
-        <v>0.4275630227078295</v>
+        <v>0.2769266989591586</v>
       </c>
       <c r="D25">
-        <v>0.2764795821370285</v>
+        <v>0.630107743231946</v>
       </c>
       <c r="E25">
-        <v>0.05527881939791257</v>
+        <v>0.282970309681815</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008343661810861214</v>
+        <v>1.715009323567415</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.040040346413491</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02180255030514999</v>
+        <v>0.1688863147012114</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.878460068318248</v>
       </c>
       <c r="L25">
-        <v>0.4573291083534343</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.455737378888969</v>
       </c>
       <c r="O25">
-        <v>11.00137720631301</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.435307849668277</v>
+        <v>0.9412720301856154</v>
       </c>
       <c r="C2">
-        <v>0.2301174148993681</v>
+        <v>0.1219509636024583</v>
       </c>
       <c r="D2">
-        <v>0.5482103786317509</v>
+        <v>0.6713912966735052</v>
       </c>
       <c r="E2">
-        <v>0.2444474089093873</v>
+        <v>0.2735394955398291</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.566456445105587</v>
+        <v>2.101562848458116</v>
       </c>
       <c r="H2">
-        <v>0.9830133373862679</v>
+        <v>1.749176837692801</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1445855451761133</v>
+        <v>0.1421149387288665</v>
       </c>
       <c r="K2">
-        <v>1.570724194418119</v>
+        <v>0.9854224740471693</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.496458740657133</v>
+        <v>2.701755863722667</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.251385398291234</v>
+        <v>0.897665587671213</v>
       </c>
       <c r="C3">
-        <v>0.1990657825964917</v>
+        <v>0.1145147620237026</v>
       </c>
       <c r="D3">
-        <v>0.4946516477725993</v>
+        <v>0.6618660156263161</v>
       </c>
       <c r="E3">
-        <v>0.2192369634561402</v>
+        <v>0.2688195549886956</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.472318784380221</v>
+        <v>2.087642056298279</v>
       </c>
       <c r="H3">
-        <v>0.947884421926517</v>
+        <v>1.748540287101036</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.128669774494945</v>
+        <v>0.1389533013314264</v>
       </c>
       <c r="K3">
-        <v>1.366635772425582</v>
+        <v>0.9369078757015927</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.528025634732373</v>
+        <v>2.716090425019097</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.140101641740557</v>
+        <v>0.8714465092666615</v>
       </c>
       <c r="C4">
-        <v>0.1802652011207755</v>
+        <v>0.1100213781324442</v>
       </c>
       <c r="D4">
-        <v>0.4625914601406862</v>
+        <v>0.65637002862087</v>
       </c>
       <c r="E4">
-        <v>0.2041356030013475</v>
+        <v>0.2660719072106374</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.417354345320916</v>
+        <v>2.080131282800508</v>
       </c>
       <c r="H4">
-        <v>0.9278728842758284</v>
+        <v>1.748848203310715</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.119128304799105</v>
+        <v>0.137094981963152</v>
       </c>
       <c r="K4">
-        <v>1.243127878428737</v>
+        <v>0.9077040892442199</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.549225938009748</v>
+        <v>2.725627356529266</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.095118559217298</v>
+        <v>0.8609015727685403</v>
       </c>
       <c r="C5">
-        <v>0.1726615991219234</v>
+        <v>0.1082084458571586</v>
       </c>
       <c r="D5">
-        <v>0.449715988104856</v>
+        <v>0.6542189622299475</v>
       </c>
       <c r="E5">
-        <v>0.1980679667848619</v>
+        <v>0.2649899887645404</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.395616150510051</v>
+        <v>2.077330751157405</v>
       </c>
       <c r="H5">
-        <v>0.9200854560011749</v>
+        <v>1.749149299954681</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1152924421378572</v>
+        <v>0.1363585065857933</v>
       </c>
       <c r="K5">
-        <v>1.193196670833174</v>
+        <v>0.8959500523977795</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.558303132392247</v>
+        <v>2.72969844688317</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.087669921331639</v>
+        <v>0.8591590192571061</v>
       </c>
       <c r="C6">
-        <v>0.171402268964755</v>
+        <v>0.1079085046495436</v>
       </c>
       <c r="D6">
-        <v>0.4475889531630912</v>
+        <v>0.6538671282782786</v>
       </c>
       <c r="E6">
-        <v>0.1970654081083794</v>
+        <v>0.2648126167603166</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.392044939098852</v>
+        <v>2.076881424019973</v>
       </c>
       <c r="H6">
-        <v>0.9188138744624297</v>
+        <v>1.74920990117495</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1146585039872292</v>
+        <v>0.1362374705080143</v>
       </c>
       <c r="K6">
-        <v>1.184928235111698</v>
+        <v>0.8940071607947573</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.559836304386337</v>
+        <v>2.730385598130077</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.13949356317238</v>
+        <v>0.8713037316886414</v>
       </c>
       <c r="C7">
-        <v>0.1801624336059007</v>
+        <v>0.1099968548581671</v>
       </c>
       <c r="D7">
-        <v>0.4624170735675932</v>
+        <v>0.6563406599596249</v>
       </c>
       <c r="E7">
-        <v>0.2040534344621818</v>
+        <v>0.2660571632174111</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.417058570379055</v>
+        <v>2.080092461109899</v>
       </c>
       <c r="H7">
-        <v>0.9277664033915158</v>
+        <v>1.748851553064213</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.119076368222629</v>
+        <v>0.1370849654261121</v>
       </c>
       <c r="K7">
-        <v>1.242452940922959</v>
+        <v>0.907544976298027</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.549346607645077</v>
+        <v>2.725681513090976</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.371520010649448</v>
+        <v>0.9261211527032458</v>
       </c>
       <c r="C8">
-        <v>0.2193501783096963</v>
+        <v>0.1193718766591729</v>
       </c>
       <c r="D8">
-        <v>0.5295607268646449</v>
+        <v>0.6680337586126939</v>
       </c>
       <c r="E8">
-        <v>0.2356709316550436</v>
+        <v>0.2718808072207821</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.533375957645774</v>
+        <v>2.096547488363001</v>
       </c>
       <c r="H8">
-        <v>0.9705624027141937</v>
+        <v>1.748812267566024</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1390463079454989</v>
+        <v>0.1410075601164706</v>
       </c>
       <c r="K8">
-        <v>1.499946362460435</v>
+        <v>0.9685732124683568</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.506953613053739</v>
+        <v>2.706545642865223</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.841938485483183</v>
+        <v>1.038037863198213</v>
       </c>
       <c r="C9">
-        <v>0.298743708697458</v>
+        <v>0.1383354271985695</v>
       </c>
       <c r="D9">
-        <v>0.6686718956324285</v>
+        <v>0.6937664943546054</v>
       </c>
       <c r="E9">
-        <v>0.3011034741268759</v>
+        <v>0.2844977982338932</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.786587898751293</v>
+        <v>2.137068142130971</v>
       </c>
       <c r="H9">
-        <v>1.06804031797347</v>
+        <v>1.754285654136424</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1803203512553608</v>
+        <v>0.1493607323483772</v>
       </c>
       <c r="K9">
-        <v>2.021875559411427</v>
+        <v>1.092903047225093</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.439192187702886</v>
+        <v>2.674865882147941</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.200576417743662</v>
+        <v>1.122985337486114</v>
       </c>
       <c r="C10">
-        <v>0.359308671507705</v>
+        <v>0.1526283531027275</v>
       </c>
       <c r="D10">
-        <v>0.776789400605935</v>
+        <v>0.7143910602585493</v>
       </c>
       <c r="E10">
-        <v>0.3519315279165554</v>
+        <v>0.2945032269558823</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.991928263065546</v>
+        <v>2.171913212244164</v>
       </c>
       <c r="H10">
-        <v>1.149752398912369</v>
+        <v>1.761701908403012</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2123648251132693</v>
+        <v>0.1559056354084163</v>
       </c>
       <c r="K10">
-        <v>2.419808035013403</v>
+        <v>1.187119830210435</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.400223540248177</v>
+        <v>2.655168604849294</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.367462751725782</v>
+        <v>1.162227974962377</v>
       </c>
       <c r="C11">
-        <v>0.3875183235248869</v>
+        <v>0.1592105347565678</v>
       </c>
       <c r="D11">
-        <v>0.8276028382423419</v>
+        <v>0.7241493532087304</v>
       </c>
       <c r="E11">
-        <v>0.3758188994910938</v>
+        <v>0.299216135821176</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.090535409928123</v>
+        <v>2.188876946257579</v>
       </c>
       <c r="H11">
-        <v>1.189576374839504</v>
+        <v>1.765815634814999</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2274247697997112</v>
+        <v>0.1589727545877651</v>
       </c>
       <c r="K11">
-        <v>2.605010238331545</v>
+        <v>1.230613314188474</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.385207779623187</v>
+        <v>2.646987872740979</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.4312802806067</v>
+        <v>1.177174703450589</v>
       </c>
       <c r="C12">
-        <v>0.3983113849838844</v>
+        <v>0.1617146824567044</v>
       </c>
       <c r="D12">
-        <v>0.8471111219671741</v>
+        <v>0.7278987850711758</v>
       </c>
       <c r="E12">
-        <v>0.3849900358977933</v>
+        <v>0.3010240885634587</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.128716422861743</v>
+        <v>2.19546135280919</v>
       </c>
       <c r="H12">
-        <v>1.205081198695069</v>
+        <v>1.76747999191133</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2332071655873875</v>
+        <v>0.1601471816931195</v>
       </c>
       <c r="K12">
-        <v>2.675838685355075</v>
+        <v>1.247174751738612</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.379946051686517</v>
+        <v>2.644002437724055</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.4175069755035</v>
+        <v>1.173951812866108</v>
       </c>
       <c r="C13">
-        <v>0.3959817090134266</v>
+        <v>0.1611748514638407</v>
       </c>
       <c r="D13">
-        <v>0.8428972728882798</v>
+        <v>0.7270888666354267</v>
       </c>
       <c r="E13">
-        <v>0.3830090214270925</v>
+        <v>0.3006336772529679</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.120454474867216</v>
+        <v>2.194036129850957</v>
       </c>
       <c r="H13">
-        <v>1.20172235062202</v>
+        <v>1.767116800099302</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2319581134258755</v>
+        <v>0.159893669724795</v>
       </c>
       <c r="K13">
-        <v>2.66055191162684</v>
+        <v>1.24360388060262</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.381059791272719</v>
+        <v>2.644640399077289</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.372700096254562</v>
+        <v>1.163455918852378</v>
       </c>
       <c r="C14">
-        <v>0.3884039587934751</v>
+        <v>0.1594163191969642</v>
       </c>
       <c r="D14">
-        <v>0.8292022634386171</v>
+        <v>0.7244567348347175</v>
       </c>
       <c r="E14">
-        <v>0.3765708045331877</v>
+        <v>0.2993644102864721</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.093659166190605</v>
+        <v>2.189415426887336</v>
       </c>
       <c r="H14">
-        <v>1.190843198907686</v>
+        <v>1.765950425543991</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2278988353514819</v>
+        <v>0.1590691150081227</v>
       </c>
       <c r="K14">
-        <v>2.610822798024998</v>
+        <v>1.23197400032754</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.38476617651358</v>
+        <v>2.646740004093459</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.345338130656501</v>
+        <v>1.157038136876281</v>
       </c>
       <c r="C15">
-        <v>0.3837772878445946</v>
+        <v>0.1583406827846545</v>
       </c>
       <c r="D15">
-        <v>0.8208493662005196</v>
+        <v>0.722851536693156</v>
       </c>
       <c r="E15">
-        <v>0.3726440427368516</v>
+        <v>0.298589980971272</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.077358684934893</v>
+        <v>2.186606047651793</v>
       </c>
       <c r="H15">
-        <v>1.184236020392916</v>
+        <v>1.765249871970468</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2254230854243673</v>
+        <v>0.1585657430761387</v>
       </c>
       <c r="K15">
-        <v>2.58045597376514</v>
+        <v>1.22486227358479</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.387092806870498</v>
+        <v>2.648040724079948</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.189752198953613</v>
+        <v>1.120432818853374</v>
       </c>
       <c r="C16">
-        <v>0.3574796798152988</v>
+        <v>0.1521998136215075</v>
       </c>
       <c r="D16">
-        <v>0.7735040777452014</v>
+        <v>0.7137609088340184</v>
       </c>
       <c r="E16">
-        <v>0.3503871163095411</v>
+        <v>0.2941984806920885</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.985596376963798</v>
+        <v>2.170827032830886</v>
       </c>
       <c r="H16">
-        <v>1.147206749229667</v>
+        <v>1.761447971838948</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2113911749697905</v>
+        <v>0.1557070043610622</v>
       </c>
       <c r="K16">
-        <v>2.407796669201844</v>
+        <v>1.184290204363606</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.401262279228646</v>
+        <v>2.655718950598896</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.095319859762071</v>
+        <v>1.098130334265079</v>
       </c>
       <c r="C17">
-        <v>0.3415264030864194</v>
+        <v>0.148453199788861</v>
       </c>
       <c r="D17">
-        <v>0.7448984663364513</v>
+        <v>0.7082804941840379</v>
       </c>
       <c r="E17">
-        <v>0.3369397264185494</v>
+        <v>0.2915458216543598</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.930697489943782</v>
+        <v>2.161432509169657</v>
       </c>
       <c r="H17">
-        <v>1.125199000531865</v>
+        <v>1.759305283649724</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2029135421489343</v>
+        <v>0.1539763063836688</v>
       </c>
       <c r="K17">
-        <v>2.303011141619237</v>
+        <v>1.159563066602573</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.410672609528575</v>
+        <v>2.660629206636187</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.041351421764432</v>
+        <v>1.085358962011469</v>
       </c>
       <c r="C18">
-        <v>0.3324114080909908</v>
+        <v>0.1463057961373408</v>
       </c>
       <c r="D18">
-        <v>0.7285966188793509</v>
+        <v>0.7051636964140755</v>
       </c>
       <c r="E18">
-        <v>0.3292761717675532</v>
+        <v>0.2900352688360002</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.899604096353755</v>
+        <v>2.156133706860743</v>
       </c>
       <c r="H18">
-        <v>1.11278758637124</v>
+        <v>1.758142511700925</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1980822040975028</v>
+        <v>0.1529893043101396</v>
       </c>
       <c r="K18">
-        <v>2.243128513748189</v>
+        <v>1.145400310831747</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.416338099567312</v>
+        <v>2.663526821888624</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.023135754459872</v>
+        <v>1.081044481120557</v>
       </c>
       <c r="C19">
-        <v>0.3293352294141698</v>
+        <v>0.1455800164680454</v>
       </c>
       <c r="D19">
-        <v>0.7231021695564266</v>
+        <v>0.7041144778513058</v>
       </c>
       <c r="E19">
-        <v>0.3266931794873997</v>
+        <v>0.289526427828946</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.889156680074706</v>
+        <v>2.154357583222861</v>
       </c>
       <c r="H19">
-        <v>1.108626461171554</v>
+        <v>1.757760773938287</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1964537956866508</v>
+        <v>0.1526565717535959</v>
       </c>
       <c r="K19">
-        <v>2.222917056303743</v>
+        <v>1.140615280510104</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.418298784708057</v>
+        <v>2.664520495705517</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.105335900750617</v>
+        <v>1.100498630636537</v>
       </c>
       <c r="C20">
-        <v>0.3432182426300017</v>
+        <v>0.1488512513249134</v>
       </c>
       <c r="D20">
-        <v>0.7479276987290007</v>
+        <v>0.7088602300583204</v>
       </c>
       <c r="E20">
-        <v>0.3383637663408123</v>
+        <v>0.2918266294980612</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.936490937974156</v>
+        <v>2.162421733862743</v>
       </c>
       <c r="H20">
-        <v>1.127515917860308</v>
+        <v>1.75952616727875</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2038112972293078</v>
+        <v>0.1541596671937242</v>
       </c>
       <c r="K20">
-        <v>2.31412500521725</v>
+        <v>1.1621891382824</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.409644449769189</v>
+        <v>2.660098906172962</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.385843390944046</v>
+        <v>1.16653647125662</v>
       </c>
       <c r="C21">
-        <v>0.3906265872427639</v>
+        <v>0.1599325268071823</v>
       </c>
       <c r="D21">
-        <v>0.8332173196670283</v>
+        <v>0.7252283845635077</v>
       </c>
       <c r="E21">
-        <v>0.3784583271428374</v>
+        <v>0.299736592489559</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.101505988598632</v>
+        <v>2.190768275440149</v>
       </c>
       <c r="H21">
-        <v>1.194026787437082</v>
+        <v>1.766290124205483</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2290888993916411</v>
+        <v>0.1593109540691415</v>
       </c>
       <c r="K21">
-        <v>2.625409733629056</v>
+        <v>1.23538749541396</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.383665708262356</v>
+        <v>2.646120245314904</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.572838102195078</v>
+        <v>1.210199669150256</v>
       </c>
       <c r="C22">
-        <v>0.4222645973258636</v>
+        <v>0.1672425387422152</v>
       </c>
       <c r="D22">
-        <v>0.8905288520226122</v>
+        <v>0.7362417596303317</v>
       </c>
       <c r="E22">
-        <v>0.4054024306438251</v>
+        <v>0.3050419165609668</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.214303654915199</v>
+        <v>2.210230826493216</v>
       </c>
       <c r="H22">
-        <v>1.239992349606212</v>
+        <v>1.771332059174824</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2460783188073492</v>
+        <v>0.1627532788273953</v>
       </c>
       <c r="K22">
-        <v>2.832963364228419</v>
+        <v>1.28375972439548</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.369179840386067</v>
+        <v>2.637639865468799</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.47266999436988</v>
+        <v>1.186849656032962</v>
       </c>
       <c r="C23">
-        <v>0.4053131820414251</v>
+        <v>0.1633348219424704</v>
       </c>
       <c r="D23">
-        <v>0.8597854894485977</v>
+        <v>0.7303347810871514</v>
       </c>
       <c r="E23">
-        <v>0.3909485881585866</v>
+        <v>0.3021979249767739</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.153614830241736</v>
+        <v>2.19975740218419</v>
       </c>
       <c r="H23">
-        <v>1.215215761889965</v>
+        <v>1.76858417991275</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2369641873268762</v>
+        <v>0.1609091018913915</v>
       </c>
       <c r="K23">
-        <v>2.721777672748914</v>
+        <v>1.257893709390146</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.376670682448562</v>
+        <v>2.642105920945284</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.100806651946129</v>
+        <v>1.099427766176404</v>
       </c>
       <c r="C24">
-        <v>0.3424531863761331</v>
+        <v>0.1486712717530452</v>
       </c>
       <c r="D24">
-        <v>0.746557736917282</v>
+        <v>0.7085980256818516</v>
       </c>
       <c r="E24">
-        <v>0.337719748699854</v>
+        <v>0.2916996311250628</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.933870267126821</v>
+        <v>2.161974186973964</v>
       </c>
       <c r="H24">
-        <v>1.126467691641722</v>
+        <v>1.759426090593706</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2034052903231895</v>
+        <v>0.1540767448609444</v>
       </c>
       <c r="K24">
-        <v>2.309099313331359</v>
+        <v>1.161001725570799</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.410108487952414</v>
+        <v>2.660338422518336</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.712673845677898</v>
+        <v>1.007285403423566</v>
       </c>
       <c r="C25">
-        <v>0.2769266989591586</v>
+        <v>0.1331425291292021</v>
       </c>
       <c r="D25">
-        <v>0.630107743231946</v>
+        <v>0.6865040290060449</v>
       </c>
       <c r="E25">
-        <v>0.282970309681815</v>
+        <v>0.280955812808763</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.715009323567415</v>
+        <v>2.125218273721487</v>
       </c>
       <c r="H25">
-        <v>1.040040346413491</v>
+        <v>1.752209600515897</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1688863147012114</v>
+        <v>0.1470297150178155</v>
       </c>
       <c r="K25">
-        <v>1.878460068318248</v>
+        <v>1.058766777369129</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.455737378888969</v>
+        <v>2.682808835861564</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9412720301856154</v>
+        <v>1.43530784966822</v>
       </c>
       <c r="C2">
-        <v>0.1219509636024583</v>
+        <v>0.2301174148992544</v>
       </c>
       <c r="D2">
-        <v>0.6713912966735052</v>
+        <v>0.5482103786315236</v>
       </c>
       <c r="E2">
-        <v>0.2735394955398291</v>
+        <v>0.2444474089094157</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.101562848458116</v>
+        <v>1.566456445105558</v>
       </c>
       <c r="H2">
-        <v>1.749176837692801</v>
+        <v>0.9830133373863816</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1421149387288665</v>
+        <v>0.144585545176092</v>
       </c>
       <c r="K2">
-        <v>0.9854224740471693</v>
+        <v>1.570724194418062</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.701755863722667</v>
+        <v>1.496458740657161</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.897665587671213</v>
+        <v>1.251385398291177</v>
       </c>
       <c r="C3">
-        <v>0.1145147620237026</v>
+        <v>0.1990657825962501</v>
       </c>
       <c r="D3">
-        <v>0.6618660156263161</v>
+        <v>0.494651647772713</v>
       </c>
       <c r="E3">
-        <v>0.2688195549886956</v>
+        <v>0.2192369634561402</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.087642056298279</v>
+        <v>1.472318784380221</v>
       </c>
       <c r="H3">
-        <v>1.748540287101036</v>
+        <v>0.947884421926517</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1389533013314264</v>
+        <v>0.1286697744949521</v>
       </c>
       <c r="K3">
-        <v>0.9369078757015927</v>
+        <v>1.366635772425525</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.716090425019097</v>
+        <v>1.528025634732415</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8714465092666615</v>
+        <v>1.140101641740529</v>
       </c>
       <c r="C4">
-        <v>0.1100213781324442</v>
+        <v>0.1802652011209176</v>
       </c>
       <c r="D4">
-        <v>0.65637002862087</v>
+        <v>0.4625914601406294</v>
       </c>
       <c r="E4">
-        <v>0.2660719072106374</v>
+        <v>0.2041356030013546</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.080131282800508</v>
+        <v>1.417354345320973</v>
       </c>
       <c r="H4">
-        <v>1.748848203310715</v>
+        <v>0.9278728842758568</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.137094981963152</v>
+        <v>0.1191283047989913</v>
       </c>
       <c r="K4">
-        <v>0.9077040892442199</v>
+        <v>1.243127878428709</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.725627356529266</v>
+        <v>1.549225938009769</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8609015727685403</v>
+        <v>1.095118559217269</v>
       </c>
       <c r="C5">
-        <v>0.1082084458571586</v>
+        <v>0.1726615991219376</v>
       </c>
       <c r="D5">
-        <v>0.6542189622299475</v>
+        <v>0.449715988104856</v>
       </c>
       <c r="E5">
-        <v>0.2649899887645404</v>
+        <v>0.1980679667848833</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.077330751157405</v>
+        <v>1.395616150510079</v>
       </c>
       <c r="H5">
-        <v>1.749149299954681</v>
+        <v>0.9200854560011749</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1363585065857933</v>
+        <v>0.1152924421378572</v>
       </c>
       <c r="K5">
-        <v>0.8959500523977795</v>
+        <v>1.193196670833288</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.72969844688317</v>
+        <v>1.558303132392297</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8591590192571061</v>
+        <v>1.08766992133161</v>
       </c>
       <c r="C6">
-        <v>0.1079085046495436</v>
+        <v>0.1714022689647692</v>
       </c>
       <c r="D6">
-        <v>0.6538671282782786</v>
+        <v>0.4475889531629775</v>
       </c>
       <c r="E6">
-        <v>0.2648126167603166</v>
+        <v>0.1970654081084007</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.076881424019973</v>
+        <v>1.392044939098781</v>
       </c>
       <c r="H6">
-        <v>1.74920990117495</v>
+        <v>0.9188138744623018</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1362374705080143</v>
+        <v>0.1146585039872647</v>
       </c>
       <c r="K6">
-        <v>0.8940071607947573</v>
+        <v>1.184928235111698</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.730385598130077</v>
+        <v>1.55983630438628</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8713037316886414</v>
+        <v>1.139493563172465</v>
       </c>
       <c r="C7">
-        <v>0.1099968548581671</v>
+        <v>0.1801624336056165</v>
       </c>
       <c r="D7">
-        <v>0.6563406599596249</v>
+        <v>0.4624170735676216</v>
       </c>
       <c r="E7">
-        <v>0.2660571632174111</v>
+        <v>0.2040534344621889</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.080092461109899</v>
+        <v>1.417058570379041</v>
       </c>
       <c r="H7">
-        <v>1.748851553064213</v>
+        <v>0.9277664033914164</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1370849654261121</v>
+        <v>0.1190763682227143</v>
       </c>
       <c r="K7">
-        <v>0.907544976298027</v>
+        <v>1.242452940923044</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.725681513090976</v>
+        <v>1.549346607645063</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9261211527032458</v>
+        <v>1.371520010649675</v>
       </c>
       <c r="C8">
-        <v>0.1193718766591729</v>
+        <v>0.2193501783097105</v>
       </c>
       <c r="D8">
-        <v>0.6680337586126939</v>
+        <v>0.5295607268647586</v>
       </c>
       <c r="E8">
-        <v>0.2718808072207821</v>
+        <v>0.2356709316550436</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.096547488363001</v>
+        <v>1.533375957645831</v>
       </c>
       <c r="H8">
-        <v>1.748812267566024</v>
+        <v>0.9705624027141937</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1410075601164706</v>
+        <v>0.1390463079455273</v>
       </c>
       <c r="K8">
-        <v>0.9685732124683568</v>
+        <v>1.499946362460406</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.706545642865223</v>
+        <v>1.506953613053739</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.038037863198213</v>
+        <v>1.841938485483183</v>
       </c>
       <c r="C9">
-        <v>0.1383354271985695</v>
+        <v>0.2987437086971454</v>
       </c>
       <c r="D9">
-        <v>0.6937664943546054</v>
+        <v>0.6686718956322295</v>
       </c>
       <c r="E9">
-        <v>0.2844977982338932</v>
+        <v>0.3011034741269256</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.137068142130971</v>
+        <v>1.786587898751321</v>
       </c>
       <c r="H9">
-        <v>1.754285654136424</v>
+        <v>1.06804031797347</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1493607323483772</v>
+        <v>0.1803203512553324</v>
       </c>
       <c r="K9">
-        <v>1.092903047225093</v>
+        <v>2.021875559411399</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.674865882147941</v>
+        <v>1.439192187702858</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.122985337486114</v>
+        <v>2.200576417743434</v>
       </c>
       <c r="C10">
-        <v>0.1526283531027275</v>
+        <v>0.3593086715075628</v>
       </c>
       <c r="D10">
-        <v>0.7143910602585493</v>
+        <v>0.7767894006058498</v>
       </c>
       <c r="E10">
-        <v>0.2945032269558823</v>
+        <v>0.3519315279165269</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.171913212244164</v>
+        <v>1.991928263065631</v>
       </c>
       <c r="H10">
-        <v>1.761701908403012</v>
+        <v>1.149752398912256</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1559056354084163</v>
+        <v>0.2123648251133403</v>
       </c>
       <c r="K10">
-        <v>1.187119830210435</v>
+        <v>2.419808035013403</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.655168604849294</v>
+        <v>1.400223540248106</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.162227974962377</v>
+        <v>2.367462751725895</v>
       </c>
       <c r="C11">
-        <v>0.1592105347565678</v>
+        <v>0.3875183235246311</v>
       </c>
       <c r="D11">
-        <v>0.7241493532087304</v>
+        <v>0.8276028382422567</v>
       </c>
       <c r="E11">
-        <v>0.299216135821176</v>
+        <v>0.3758188994910654</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.188876946257579</v>
+        <v>2.090535409928037</v>
       </c>
       <c r="H11">
-        <v>1.765815634814999</v>
+        <v>1.189576374839646</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1589727545877651</v>
+        <v>0.2274247697996969</v>
       </c>
       <c r="K11">
-        <v>1.230613314188474</v>
+        <v>2.605010238331516</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.646987872740979</v>
+        <v>1.385207779623286</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.177174703450589</v>
+        <v>2.431280280606643</v>
       </c>
       <c r="C12">
-        <v>0.1617146824567044</v>
+        <v>0.398311384983856</v>
       </c>
       <c r="D12">
-        <v>0.7278987850711758</v>
+        <v>0.8471111219671172</v>
       </c>
       <c r="E12">
-        <v>0.3010240885634587</v>
+        <v>0.3849900358978218</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.19546135280919</v>
+        <v>2.128716422861714</v>
       </c>
       <c r="H12">
-        <v>1.76747999191133</v>
+        <v>1.205081198695069</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1601471816931195</v>
+        <v>0.233207165587487</v>
       </c>
       <c r="K12">
-        <v>1.247174751738612</v>
+        <v>2.675838685355103</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.644002437724055</v>
+        <v>1.379946051686474</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.173951812866108</v>
+        <v>2.417506975503613</v>
       </c>
       <c r="C13">
-        <v>0.1611748514638407</v>
+        <v>0.3959817090134266</v>
       </c>
       <c r="D13">
-        <v>0.7270888666354267</v>
+        <v>0.8428972728882513</v>
       </c>
       <c r="E13">
-        <v>0.3006336772529679</v>
+        <v>0.383009021427128</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.194036129850957</v>
+        <v>2.120454474867188</v>
       </c>
       <c r="H13">
-        <v>1.767116800099302</v>
+        <v>1.201722350621878</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.159893669724795</v>
+        <v>0.2319581134258755</v>
       </c>
       <c r="K13">
-        <v>1.24360388060262</v>
+        <v>2.660551911626925</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.644640399077289</v>
+        <v>1.381059791272634</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.163455918852378</v>
+        <v>2.372700096254675</v>
       </c>
       <c r="C14">
-        <v>0.1594163191969642</v>
+        <v>0.3884039587933614</v>
       </c>
       <c r="D14">
-        <v>0.7244567348347175</v>
+        <v>0.829202263438475</v>
       </c>
       <c r="E14">
-        <v>0.2993644102864721</v>
+        <v>0.3765708045332303</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.189415426887336</v>
+        <v>2.093659166190633</v>
       </c>
       <c r="H14">
-        <v>1.765950425543991</v>
+        <v>1.1908431989078</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1590691150081227</v>
+        <v>0.227898835351354</v>
       </c>
       <c r="K14">
-        <v>1.23197400032754</v>
+        <v>2.610822798025026</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.646740004093459</v>
+        <v>1.384766176513622</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.157038136876281</v>
+        <v>2.345338130656501</v>
       </c>
       <c r="C15">
-        <v>0.1583406827846545</v>
+        <v>0.3837772878445662</v>
       </c>
       <c r="D15">
-        <v>0.722851536693156</v>
+        <v>0.8208493662004059</v>
       </c>
       <c r="E15">
-        <v>0.298589980971272</v>
+        <v>0.37264404273688</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.186606047651793</v>
+        <v>2.077358684935007</v>
       </c>
       <c r="H15">
-        <v>1.765249871970468</v>
+        <v>1.18423602039303</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1585657430761387</v>
+        <v>0.2254230854243104</v>
       </c>
       <c r="K15">
-        <v>1.22486227358479</v>
+        <v>2.580455973765169</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.648040724079948</v>
+        <v>1.387092806870527</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.120432818853374</v>
+        <v>2.189752198953613</v>
       </c>
       <c r="C16">
-        <v>0.1521998136215075</v>
+        <v>0.3574796798152988</v>
       </c>
       <c r="D16">
-        <v>0.7137609088340184</v>
+        <v>0.773504077745315</v>
       </c>
       <c r="E16">
-        <v>0.2941984806920885</v>
+        <v>0.3503871163095624</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.170827032830886</v>
+        <v>1.985596376963798</v>
       </c>
       <c r="H16">
-        <v>1.761447971838948</v>
+        <v>1.147206749229667</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1557070043610622</v>
+        <v>0.2113911749698616</v>
       </c>
       <c r="K16">
-        <v>1.184290204363606</v>
+        <v>2.407796669201872</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.655718950598896</v>
+        <v>1.401262279228689</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.098130334265079</v>
+        <v>2.095319859762071</v>
       </c>
       <c r="C17">
-        <v>0.148453199788861</v>
+        <v>0.3415264030868741</v>
       </c>
       <c r="D17">
-        <v>0.7082804941840379</v>
+        <v>0.7448984663365366</v>
       </c>
       <c r="E17">
-        <v>0.2915458216543598</v>
+        <v>0.336939726418592</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.161432509169657</v>
+        <v>1.930697489943725</v>
       </c>
       <c r="H17">
-        <v>1.759305283649724</v>
+        <v>1.125199000531836</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1539763063836688</v>
+        <v>0.2029135421490338</v>
       </c>
       <c r="K17">
-        <v>1.159563066602573</v>
+        <v>2.303011141619265</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.660629206636187</v>
+        <v>1.410672609528575</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.085358962011469</v>
+        <v>2.041351421764375</v>
       </c>
       <c r="C18">
-        <v>0.1463057961373408</v>
+        <v>0.3324114080912466</v>
       </c>
       <c r="D18">
-        <v>0.7051636964140755</v>
+        <v>0.7285966188795214</v>
       </c>
       <c r="E18">
-        <v>0.2900352688360002</v>
+        <v>0.3292761717675461</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.156133706860743</v>
+        <v>1.899604096353698</v>
       </c>
       <c r="H18">
-        <v>1.758142511700925</v>
+        <v>1.112787586371269</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1529893043101396</v>
+        <v>0.1980822040976591</v>
       </c>
       <c r="K18">
-        <v>1.145400310831747</v>
+        <v>2.243128513748218</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.663526821888624</v>
+        <v>1.416338099567369</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.081044481120557</v>
+        <v>2.023135754459645</v>
       </c>
       <c r="C19">
-        <v>0.1455800164680454</v>
+        <v>0.3293352294137719</v>
       </c>
       <c r="D19">
-        <v>0.7041144778513058</v>
+        <v>0.7231021695565971</v>
       </c>
       <c r="E19">
-        <v>0.289526427828946</v>
+        <v>0.3266931794874139</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.154357583222861</v>
+        <v>1.889156680074763</v>
       </c>
       <c r="H19">
-        <v>1.757760773938287</v>
+        <v>1.108626461171696</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1526565717535959</v>
+        <v>0.196453795686665</v>
       </c>
       <c r="K19">
-        <v>1.140615280510104</v>
+        <v>2.222917056303686</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.664520495705517</v>
+        <v>1.418298784708057</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.100498630636537</v>
+        <v>2.105335900750561</v>
       </c>
       <c r="C20">
-        <v>0.1488512513249134</v>
+        <v>0.3432182426297459</v>
       </c>
       <c r="D20">
-        <v>0.7088602300583204</v>
+        <v>0.747927698728887</v>
       </c>
       <c r="E20">
-        <v>0.2918266294980612</v>
+        <v>0.3383637663408194</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.162421733862743</v>
+        <v>1.936490937974185</v>
       </c>
       <c r="H20">
-        <v>1.75952616727875</v>
+        <v>1.127515917860421</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1541596671937242</v>
+        <v>0.2038112972293646</v>
       </c>
       <c r="K20">
-        <v>1.1621891382824</v>
+        <v>2.314125005217363</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.660098906172962</v>
+        <v>1.409644449769246</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.16653647125662</v>
+        <v>2.385843390943592</v>
       </c>
       <c r="C21">
-        <v>0.1599325268071823</v>
+        <v>0.3906265872425934</v>
       </c>
       <c r="D21">
-        <v>0.7252283845635077</v>
+        <v>0.8332173196670283</v>
       </c>
       <c r="E21">
-        <v>0.299736592489559</v>
+        <v>0.3784583271428446</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.190768275440149</v>
+        <v>2.10150598859866</v>
       </c>
       <c r="H21">
-        <v>1.766290124205483</v>
+        <v>1.194026787436968</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1593109540691415</v>
+        <v>0.2290888993915843</v>
       </c>
       <c r="K21">
-        <v>1.23538749541396</v>
+        <v>2.625409733629056</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.646120245314904</v>
+        <v>1.383665708262356</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.210199669150256</v>
+        <v>2.572838102194964</v>
       </c>
       <c r="C22">
-        <v>0.1672425387422152</v>
+        <v>0.4222645973264321</v>
       </c>
       <c r="D22">
-        <v>0.7362417596303317</v>
+        <v>0.8905288520228396</v>
       </c>
       <c r="E22">
-        <v>0.3050419165609668</v>
+        <v>0.4054024306438251</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.210230826493216</v>
+        <v>2.214303654915227</v>
       </c>
       <c r="H22">
-        <v>1.771332059174824</v>
+        <v>1.23999234960624</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1627532788273953</v>
+        <v>0.2460783188072497</v>
       </c>
       <c r="K22">
-        <v>1.28375972439548</v>
+        <v>2.832963364228362</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.637639865468799</v>
+        <v>1.369179840386138</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.186849656032962</v>
+        <v>2.472669994369994</v>
       </c>
       <c r="C23">
-        <v>0.1633348219424704</v>
+        <v>0.4053131820412545</v>
       </c>
       <c r="D23">
-        <v>0.7303347810871514</v>
+        <v>0.8597854894485124</v>
       </c>
       <c r="E23">
-        <v>0.3021979249767739</v>
+        <v>0.390948588158615</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.19975740218419</v>
+        <v>2.153614830241736</v>
       </c>
       <c r="H23">
-        <v>1.76858417991275</v>
+        <v>1.215215761889851</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1609091018913915</v>
+        <v>0.2369641873268051</v>
       </c>
       <c r="K23">
-        <v>1.257893709390146</v>
+        <v>2.721777672748914</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.642105920945284</v>
+        <v>1.376670682448562</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.099427766176404</v>
+        <v>2.100806651946073</v>
       </c>
       <c r="C24">
-        <v>0.1486712717530452</v>
+        <v>0.3424531863760194</v>
       </c>
       <c r="D24">
-        <v>0.7085980256818516</v>
+        <v>0.7465577369174241</v>
       </c>
       <c r="E24">
-        <v>0.2916996311250628</v>
+        <v>0.337719748699854</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.161974186973964</v>
+        <v>1.933870267126792</v>
       </c>
       <c r="H24">
-        <v>1.759426090593706</v>
+        <v>1.126467691641835</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1540767448609444</v>
+        <v>0.2034052903233459</v>
       </c>
       <c r="K24">
-        <v>1.161001725570799</v>
+        <v>2.309099313331274</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.660338422518336</v>
+        <v>1.410108487952414</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.007285403423566</v>
+        <v>1.712673845677813</v>
       </c>
       <c r="C25">
-        <v>0.1331425291292021</v>
+        <v>0.276926698958988</v>
       </c>
       <c r="D25">
-        <v>0.6865040290060449</v>
+        <v>0.6301077432318607</v>
       </c>
       <c r="E25">
-        <v>0.280955812808763</v>
+        <v>0.282970309681815</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.125218273721487</v>
+        <v>1.715009323567358</v>
       </c>
       <c r="H25">
-        <v>1.752209600515897</v>
+        <v>1.04004034641352</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1470297150178155</v>
+        <v>0.1688863147011261</v>
       </c>
       <c r="K25">
-        <v>1.058766777369129</v>
+        <v>1.878460068318219</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.682808835861564</v>
+        <v>1.455737378888955</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.43530784966822</v>
+        <v>3.378962897746135</v>
       </c>
       <c r="C2">
-        <v>0.2301174148992544</v>
+        <v>0.526979798400049</v>
       </c>
       <c r="D2">
-        <v>0.5482103786315236</v>
+        <v>0.267411757815168</v>
       </c>
       <c r="E2">
-        <v>0.2444474089094157</v>
+        <v>0.06762939167235871</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.566456445105558</v>
+        <v>0.4134067703127116</v>
       </c>
       <c r="H2">
-        <v>0.9830133373863816</v>
+        <v>0.003281373216561523</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002879253569159967</v>
       </c>
       <c r="J2">
-        <v>0.144585545176092</v>
+        <v>0.3505251527678297</v>
       </c>
       <c r="K2">
-        <v>1.570724194418062</v>
+        <v>0.3183824983146373</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.03909978147909676</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.496458740657161</v>
+        <v>0.4254348466249951</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.557731550435761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.251385398291177</v>
+        <v>2.945797199840342</v>
       </c>
       <c r="C3">
-        <v>0.1990657825962501</v>
+        <v>0.471840461488398</v>
       </c>
       <c r="D3">
-        <v>0.494651647772713</v>
+        <v>0.2507540500776884</v>
       </c>
       <c r="E3">
-        <v>0.2192369634561402</v>
+        <v>0.06541665218758119</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.472318784380221</v>
+        <v>0.400498764523654</v>
       </c>
       <c r="H3">
-        <v>0.947884421926517</v>
+        <v>0.005110417325731309</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00436699372838234</v>
       </c>
       <c r="J3">
-        <v>0.1286697744949521</v>
+        <v>0.3496287490951744</v>
       </c>
       <c r="K3">
-        <v>1.366635772425525</v>
+        <v>0.3280198092500157</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.03661633978805412</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.528025634732415</v>
+        <v>0.3777166012149422</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.528156252978192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.140101641740529</v>
+        <v>2.679377732834894</v>
       </c>
       <c r="C4">
-        <v>0.1802652011209176</v>
+        <v>0.4381592104346339</v>
       </c>
       <c r="D4">
-        <v>0.4625914601406294</v>
+        <v>0.2406496220932581</v>
       </c>
       <c r="E4">
-        <v>0.2041356030013546</v>
+        <v>0.06404385377541999</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.417354345320973</v>
+        <v>0.3931000196905359</v>
       </c>
       <c r="H4">
-        <v>0.9278728842758568</v>
+        <v>0.006483207829263954</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.005527224372080308</v>
       </c>
       <c r="J4">
-        <v>0.1191283047989913</v>
+        <v>0.3494300613654389</v>
       </c>
       <c r="K4">
-        <v>1.243127878428709</v>
+        <v>0.3343431857541059</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.03507958335622519</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.549225938009769</v>
+        <v>0.3485126876979336</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.511841105097716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.095118559217269</v>
+        <v>2.570673147542777</v>
       </c>
       <c r="C5">
-        <v>0.1726615991219376</v>
+        <v>0.4251935869346823</v>
       </c>
       <c r="D5">
-        <v>0.449715988104856</v>
+        <v>0.2364832445114757</v>
       </c>
       <c r="E5">
-        <v>0.1980679667848833</v>
+        <v>0.06344752763262029</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.395616150510079</v>
+        <v>0.3897084361087266</v>
       </c>
       <c r="H5">
-        <v>0.9200854560011749</v>
+        <v>0.00710572375432425</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.006137849004196561</v>
       </c>
       <c r="J5">
-        <v>0.1152924421378572</v>
+        <v>0.3491719795921426</v>
       </c>
       <c r="K5">
-        <v>1.193196670833288</v>
+        <v>0.3366934187074175</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.03445509930997126</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.558303132392297</v>
+        <v>0.336846884848029</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.504021095456991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.08766992133161</v>
+        <v>2.552604226125766</v>
       </c>
       <c r="C6">
-        <v>0.1714022689647692</v>
+        <v>0.4239266458078248</v>
       </c>
       <c r="D6">
-        <v>0.4475889531629775</v>
+        <v>0.2356975304610671</v>
       </c>
       <c r="E6">
-        <v>0.1970654081084007</v>
+        <v>0.06330776176783459</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.392044939098781</v>
+        <v>0.3885389857847699</v>
       </c>
       <c r="H6">
-        <v>0.9188138744623018</v>
+        <v>0.007216338750592743</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.006346121471323407</v>
       </c>
       <c r="J6">
-        <v>0.1146585039872647</v>
+        <v>0.3488133023738911</v>
       </c>
       <c r="K6">
-        <v>1.184928235111698</v>
+        <v>0.3366927638297632</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.03435788825111352</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.55983630438628</v>
+        <v>0.3351736466136401</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.500775789828253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.139493563172465</v>
+        <v>2.677881197140493</v>
       </c>
       <c r="C7">
-        <v>0.1801624336056165</v>
+        <v>0.4404052375616061</v>
       </c>
       <c r="D7">
-        <v>0.4624170735676216</v>
+        <v>0.2403323756647637</v>
       </c>
       <c r="E7">
-        <v>0.2040534344621889</v>
+        <v>0.0639254554240889</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.417058570379041</v>
+        <v>0.3913784956163937</v>
       </c>
       <c r="H7">
-        <v>0.9277664033914164</v>
+        <v>0.006500657367999929</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005801077572842317</v>
       </c>
       <c r="J7">
-        <v>0.1190763682227143</v>
+        <v>0.3485514705157229</v>
       </c>
       <c r="K7">
-        <v>1.242452940923044</v>
+        <v>0.3332942855830758</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0350898515487863</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.549346607645063</v>
+        <v>0.3490740776494476</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.506350539192965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.371520010649675</v>
+        <v>3.229641270838101</v>
       </c>
       <c r="C8">
-        <v>0.2193501783097105</v>
+        <v>0.5111705187877078</v>
       </c>
       <c r="D8">
-        <v>0.5295607268647586</v>
+        <v>0.2612971362007812</v>
       </c>
       <c r="E8">
-        <v>0.2356709316550436</v>
+        <v>0.06672449675923708</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.533375957645831</v>
+        <v>0.4066323702246422</v>
       </c>
       <c r="H8">
-        <v>0.9705624027141937</v>
+        <v>0.003867330062180097</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003656567816451961</v>
       </c>
       <c r="J8">
-        <v>0.1390463079455273</v>
+        <v>0.3489921622775682</v>
       </c>
       <c r="K8">
-        <v>1.499946362460406</v>
+        <v>0.3202093748658683</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.03827177828340211</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.506953613053739</v>
+        <v>0.4099172220949612</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.540047017799907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.841938485483183</v>
+        <v>4.308847976920219</v>
       </c>
       <c r="C9">
-        <v>0.2987437086971454</v>
+        <v>0.6471504758598314</v>
       </c>
       <c r="D9">
-        <v>0.6686718956322295</v>
+        <v>0.3039331589989587</v>
       </c>
       <c r="E9">
-        <v>0.3011034741269256</v>
+        <v>0.07230530336892294</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.786587898751321</v>
+        <v>0.4440379853887322</v>
       </c>
       <c r="H9">
-        <v>1.06804031797347</v>
+        <v>0.0008032433716749221</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001142796509141952</v>
       </c>
       <c r="J9">
-        <v>0.1803203512553324</v>
+        <v>0.3543391807953356</v>
       </c>
       <c r="K9">
-        <v>2.021875559411399</v>
+        <v>0.2998287737862668</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.04441261794830176</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.439192187702858</v>
+        <v>0.5288546064091548</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.631325121447844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.200576417743434</v>
+        <v>5.100780958668111</v>
       </c>
       <c r="C10">
-        <v>0.3593086715075628</v>
+        <v>0.7548456410948745</v>
       </c>
       <c r="D10">
-        <v>0.7767894006058498</v>
+        <v>0.3307135188413639</v>
       </c>
       <c r="E10">
-        <v>0.3519315279165269</v>
+        <v>0.07435792387729023</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.991928263065631</v>
+        <v>0.4658093633575362</v>
       </c>
       <c r="H10">
-        <v>1.149752398912256</v>
+        <v>0.000223573036723046</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0008923089760761727</v>
       </c>
       <c r="J10">
-        <v>0.2123648251133403</v>
+        <v>0.355725788788817</v>
       </c>
       <c r="K10">
-        <v>2.419808035013403</v>
+        <v>0.2825225942208043</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.04984589636840298</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.400223540248106</v>
+        <v>0.6037182150917175</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.680915166132337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.367462751725895</v>
+        <v>5.457879378539189</v>
       </c>
       <c r="C11">
-        <v>0.3875183235246311</v>
+        <v>0.8563349726286447</v>
       </c>
       <c r="D11">
-        <v>0.8276028382422567</v>
+        <v>0.2988350303459413</v>
       </c>
       <c r="E11">
-        <v>0.3758188994910654</v>
+        <v>0.06101823916523408</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.090535409928037</v>
+        <v>0.4059269598778457</v>
       </c>
       <c r="H11">
-        <v>1.189576374839646</v>
+        <v>0.0187694302682786</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001471533480082776</v>
       </c>
       <c r="J11">
-        <v>0.2274247697996969</v>
+        <v>0.3209036704340349</v>
       </c>
       <c r="K11">
-        <v>2.605010238331516</v>
+        <v>0.2411447567656673</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06517862577857514</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.385207779623286</v>
+        <v>0.5242970127213198</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.481279818146703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.431280280606643</v>
+        <v>5.591903198084594</v>
       </c>
       <c r="C12">
-        <v>0.398311384983856</v>
+        <v>0.9182103553373224</v>
       </c>
       <c r="D12">
-        <v>0.8471111219671172</v>
+        <v>0.2680225185189329</v>
       </c>
       <c r="E12">
-        <v>0.3849900358978218</v>
+        <v>0.05316381777082668</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.128716422861714</v>
+        <v>0.3559327852953871</v>
       </c>
       <c r="H12">
-        <v>1.205081198695069</v>
+        <v>0.05744659940370411</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001490458954708451</v>
       </c>
       <c r="J12">
-        <v>0.233207165587487</v>
+        <v>0.2936289525841573</v>
       </c>
       <c r="K12">
-        <v>2.675838685355103</v>
+        <v>0.215024641781719</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08355351618130413</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.379946051686474</v>
+        <v>0.4457599560818011</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.31826712890097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.417506975503613</v>
+        <v>5.56061764238359</v>
       </c>
       <c r="C13">
-        <v>0.3959817090134266</v>
+        <v>0.9563813204897826</v>
       </c>
       <c r="D13">
-        <v>0.8428972728882513</v>
+        <v>0.2359557754046051</v>
       </c>
       <c r="E13">
-        <v>0.383009021427128</v>
+        <v>0.04886561695133285</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.120454474867188</v>
+        <v>0.3079126340710161</v>
       </c>
       <c r="H13">
-        <v>1.201722350621878</v>
+        <v>0.1132230918039312</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001409994451993413</v>
       </c>
       <c r="J13">
-        <v>0.2319581134258755</v>
+        <v>0.2691193923489834</v>
       </c>
       <c r="K13">
-        <v>2.660551911626925</v>
+        <v>0.197197613935133</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1050539499687559</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.381059791272634</v>
+        <v>0.3650105347218755</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.165123137100366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.372700096254675</v>
+        <v>5.463788239602195</v>
       </c>
       <c r="C14">
-        <v>0.3884039587933614</v>
+        <v>0.9732532845064554</v>
       </c>
       <c r="D14">
-        <v>0.829202263438475</v>
+        <v>0.213275617341111</v>
       </c>
       <c r="E14">
-        <v>0.3765708045332303</v>
+        <v>0.04794077955089859</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.093659166190633</v>
+        <v>0.2754440125439999</v>
       </c>
       <c r="H14">
-        <v>1.1908431989078</v>
+        <v>0.1626136589921003</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001411822844402444</v>
       </c>
       <c r="J14">
-        <v>0.227898835351354</v>
+        <v>0.2532915362097512</v>
       </c>
       <c r="K14">
-        <v>2.610822798025026</v>
+        <v>0.1888051235338644</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1222249398226225</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.384766176513622</v>
+        <v>0.3089534500350766</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.063083894642062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.345338130656501</v>
+        <v>5.404932443415191</v>
       </c>
       <c r="C15">
-        <v>0.3837772878445662</v>
+        <v>0.9729955560793826</v>
       </c>
       <c r="D15">
-        <v>0.8208493662004059</v>
+        <v>0.2072836465431038</v>
       </c>
       <c r="E15">
-        <v>0.37264404273688</v>
+        <v>0.04798868289323899</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.077358684935007</v>
+        <v>0.2672078470214245</v>
       </c>
       <c r="H15">
-        <v>1.18423602039303</v>
+        <v>0.1751510025647036</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001519764730699258</v>
       </c>
       <c r="J15">
-        <v>0.2254230854243104</v>
+        <v>0.2496589118857884</v>
       </c>
       <c r="K15">
-        <v>2.580455973765169</v>
+        <v>0.1878783541318665</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1262166703779641</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.387092806870527</v>
+        <v>0.2944581883149198</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.037977779235902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.189752198953613</v>
+        <v>5.069357567691782</v>
       </c>
       <c r="C16">
-        <v>0.3574796798152988</v>
+        <v>0.9186681601553914</v>
       </c>
       <c r="D16">
-        <v>0.773504077745315</v>
+        <v>0.202780412010469</v>
       </c>
       <c r="E16">
-        <v>0.3503871163095624</v>
+        <v>0.04798505024813116</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.985596376963798</v>
+        <v>0.2667582202673273</v>
       </c>
       <c r="H16">
-        <v>1.147206749229667</v>
+        <v>0.1626267155004371</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001675485574728519</v>
       </c>
       <c r="J16">
-        <v>0.2113911749698616</v>
+        <v>0.2534202096155198</v>
       </c>
       <c r="K16">
-        <v>2.407796669201872</v>
+        <v>0.1977608555796326</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1188000390413109</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.401262279228689</v>
+        <v>0.2813587001728308</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.044675022128445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.095319859762071</v>
+        <v>4.864067959315719</v>
       </c>
       <c r="C17">
-        <v>0.3415264030868741</v>
+        <v>0.8682880728655107</v>
       </c>
       <c r="D17">
-        <v>0.7448984663365366</v>
+        <v>0.211134635277844</v>
       </c>
       <c r="E17">
-        <v>0.336939726418592</v>
+        <v>0.04813811501081933</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.930697489943725</v>
+        <v>0.2833813217437324</v>
       </c>
       <c r="H17">
-        <v>1.125199000531836</v>
+        <v>0.1250220779052569</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001847896646940406</v>
       </c>
       <c r="J17">
-        <v>0.2029135421490338</v>
+        <v>0.2646277251044751</v>
       </c>
       <c r="K17">
-        <v>2.303011141619265</v>
+        <v>0.2095853343583194</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1035584408110566</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.410672609528575</v>
+        <v>0.3002197780737532</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.103245028766395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.041351421764375</v>
+        <v>4.746884000429191</v>
       </c>
       <c r="C18">
-        <v>0.3324114080912466</v>
+        <v>0.814249869403767</v>
       </c>
       <c r="D18">
-        <v>0.7285966188795214</v>
+        <v>0.2324824119491922</v>
       </c>
       <c r="E18">
-        <v>0.3292761717675461</v>
+        <v>0.05027050007027833</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.899604096353698</v>
+        <v>0.3190546468839628</v>
       </c>
       <c r="H18">
-        <v>1.112787586371269</v>
+        <v>0.07226009204364203</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001676799676126883</v>
       </c>
       <c r="J18">
-        <v>0.1980822040976591</v>
+        <v>0.2846833012896681</v>
       </c>
       <c r="K18">
-        <v>2.243128513748218</v>
+        <v>0.2266714980658957</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08278964275796596</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.416338099567369</v>
+        <v>0.3513472383564817</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.220790498913004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.023135754459645</v>
+        <v>4.708553701817095</v>
       </c>
       <c r="C19">
-        <v>0.3293352294137719</v>
+        <v>0.7680760066422181</v>
       </c>
       <c r="D19">
-        <v>0.7231021695565971</v>
+        <v>0.2637563339502691</v>
       </c>
       <c r="E19">
-        <v>0.3266931794874139</v>
+        <v>0.05646225628611745</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.889156680074763</v>
+        <v>0.3675242536308545</v>
       </c>
       <c r="H19">
-        <v>1.108626461171696</v>
+        <v>0.02690178653535469</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001762238402690741</v>
       </c>
       <c r="J19">
-        <v>0.196453795686665</v>
+        <v>0.3102238486687483</v>
       </c>
       <c r="K19">
-        <v>2.222917056303686</v>
+        <v>0.2483928419065453</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06375955966869284</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.418298784708057</v>
+        <v>0.4308792070344083</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.377005513711651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.105335900750561</v>
+        <v>4.892652456008193</v>
       </c>
       <c r="C20">
-        <v>0.3432182426297459</v>
+        <v>0.734571051502428</v>
       </c>
       <c r="D20">
-        <v>0.747927698728887</v>
+        <v>0.3226108057133104</v>
       </c>
       <c r="E20">
-        <v>0.3383637663408194</v>
+        <v>0.0734105360439461</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.936490937974185</v>
+        <v>0.4543901767026739</v>
       </c>
       <c r="H20">
-        <v>1.127515917860421</v>
+        <v>0.0002617694004349858</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.00164283433588519</v>
       </c>
       <c r="J20">
-        <v>0.2038112972293646</v>
+        <v>0.3523998163553017</v>
       </c>
       <c r="K20">
-        <v>2.314125005217363</v>
+        <v>0.28356202605897</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.04852503521052043</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.409644449769246</v>
+        <v>0.585719520141339</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.649606954362923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.385843390943592</v>
+        <v>5.501020210482011</v>
       </c>
       <c r="C21">
-        <v>0.3906265872425934</v>
+        <v>0.8079763463219649</v>
       </c>
       <c r="D21">
-        <v>0.8332173196670283</v>
+        <v>0.3516109070017706</v>
       </c>
       <c r="E21">
-        <v>0.3784583271428446</v>
+        <v>0.07805111749625659</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.10150598859866</v>
+        <v>0.4859129987790567</v>
       </c>
       <c r="H21">
-        <v>1.194026787436968</v>
+        <v>4.262554712441968E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001792889569537159</v>
       </c>
       <c r="J21">
-        <v>0.2290888993915843</v>
+        <v>0.3610999389183434</v>
       </c>
       <c r="K21">
-        <v>2.625409733629056</v>
+        <v>0.2781397508485668</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.05130116290401077</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.383665708262356</v>
+        <v>0.6641801817817168</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.735048483612161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.572838102194964</v>
+        <v>5.898835312151789</v>
       </c>
       <c r="C22">
-        <v>0.4222645973264321</v>
+        <v>0.8556817368152565</v>
       </c>
       <c r="D22">
-        <v>0.8905288520228396</v>
+        <v>0.3684453754586343</v>
       </c>
       <c r="E22">
-        <v>0.4054024306438251</v>
+        <v>0.08023017949880007</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.214303654915227</v>
+        <v>0.5052780381263631</v>
       </c>
       <c r="H22">
-        <v>1.23999234960624</v>
+        <v>0.0003193783274222373</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001912689329897965</v>
       </c>
       <c r="J22">
-        <v>0.2460783188072497</v>
+        <v>0.366225252089265</v>
       </c>
       <c r="K22">
-        <v>2.832963364228362</v>
+        <v>0.2743187314903821</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0535626935555964</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.369179840386138</v>
+        <v>0.7077587348268253</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.787084115851485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.472669994369994</v>
+        <v>5.686554209846861</v>
       </c>
       <c r="C23">
-        <v>0.4053131820412545</v>
+        <v>0.8271896058293464</v>
       </c>
       <c r="D23">
-        <v>0.8597854894485124</v>
+        <v>0.3597487796773891</v>
       </c>
       <c r="E23">
-        <v>0.390948588158615</v>
+        <v>0.07919350965967986</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.153614830241736</v>
+        <v>0.4968146700608713</v>
       </c>
       <c r="H23">
-        <v>1.215215761889851</v>
+        <v>0.0001413109071137786</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001519409076905731</v>
       </c>
       <c r="J23">
-        <v>0.2369641873268051</v>
+        <v>0.3644484488551569</v>
       </c>
       <c r="K23">
-        <v>2.721777672748914</v>
+        <v>0.2775066403730868</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.05232679595728662</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.376670682448562</v>
+        <v>0.6836066936589873</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.765287907227673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.100806651946073</v>
+        <v>4.883098560713506</v>
       </c>
       <c r="C24">
-        <v>0.3424531863760194</v>
+        <v>0.7246339100837815</v>
       </c>
       <c r="D24">
-        <v>0.7465577369174241</v>
+        <v>0.3267009576862137</v>
       </c>
       <c r="E24">
-        <v>0.337719748699854</v>
+        <v>0.0750644324994294</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.933870267126792</v>
+        <v>0.4632740705174001</v>
       </c>
       <c r="H24">
-        <v>1.126467691641835</v>
+        <v>0.0001277889177191405</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001149210191901062</v>
       </c>
       <c r="J24">
-        <v>0.2034052903233459</v>
+        <v>0.3570534831428773</v>
       </c>
       <c r="K24">
-        <v>2.309099313331274</v>
+        <v>0.2887388570341329</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.04772308543797443</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.410108487952414</v>
+        <v>0.5939488827240069</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.678178450503509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.712673845677813</v>
+        <v>4.016995037718118</v>
       </c>
       <c r="C25">
-        <v>0.276926698958988</v>
+        <v>0.6146624931813562</v>
       </c>
       <c r="D25">
-        <v>0.6301077432318607</v>
+        <v>0.2918044579608647</v>
       </c>
       <c r="E25">
-        <v>0.282970309681815</v>
+        <v>0.07060962009292204</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.715009323567358</v>
+        <v>0.4303858432162571</v>
       </c>
       <c r="H25">
-        <v>1.04004034641352</v>
+        <v>0.001393952530339249</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002021131154905653</v>
       </c>
       <c r="J25">
-        <v>0.1688863147011261</v>
+        <v>0.3510042522414665</v>
       </c>
       <c r="K25">
-        <v>1.878460068318219</v>
+        <v>0.3030723393420445</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.04279202130237536</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.455737378888955</v>
+        <v>0.4978755941704094</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.595196217844745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.378962897746135</v>
+        <v>3.384422120088345</v>
       </c>
       <c r="C2">
-        <v>0.526979798400049</v>
+        <v>0.5432725626659192</v>
       </c>
       <c r="D2">
-        <v>0.267411757815168</v>
+        <v>0.263450802139829</v>
       </c>
       <c r="E2">
-        <v>0.06762939167235871</v>
+        <v>0.06557880347726552</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4134067703127116</v>
+        <v>0.367646427366509</v>
       </c>
       <c r="H2">
-        <v>0.003281373216561523</v>
+        <v>0.002639500363111669</v>
       </c>
       <c r="I2">
-        <v>0.002879253569159967</v>
+        <v>0.002095809510051616</v>
       </c>
       <c r="J2">
-        <v>0.3505251527678297</v>
+        <v>0.364017441709187</v>
       </c>
       <c r="K2">
-        <v>0.3183824983146373</v>
+        <v>0.290523641689127</v>
       </c>
       <c r="L2">
-        <v>0.03909978147909676</v>
+        <v>0.143810880457842</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07980529989606922</v>
       </c>
       <c r="N2">
-        <v>0.4254348466249951</v>
+        <v>0.03866499320005978</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4403067279902899</v>
       </c>
       <c r="Q2">
-        <v>1.557731550435761</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.460806888720214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.945797199840342</v>
+        <v>2.950926616385914</v>
       </c>
       <c r="C3">
-        <v>0.471840461488398</v>
+        <v>0.479685180289664</v>
       </c>
       <c r="D3">
-        <v>0.2507540500776884</v>
+        <v>0.2475711690650684</v>
       </c>
       <c r="E3">
-        <v>0.06541665218758119</v>
+        <v>0.06372204293445449</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.400498764523654</v>
+        <v>0.3589667113724602</v>
       </c>
       <c r="H3">
-        <v>0.005110417325731309</v>
+        <v>0.00417759019400632</v>
       </c>
       <c r="I3">
-        <v>0.00436699372838234</v>
+        <v>0.003164836873631671</v>
       </c>
       <c r="J3">
-        <v>0.3496287490951744</v>
+        <v>0.3615175315663492</v>
       </c>
       <c r="K3">
-        <v>0.3280198092500157</v>
+        <v>0.3008848147169036</v>
       </c>
       <c r="L3">
-        <v>0.03661633978805412</v>
+        <v>0.1499229956891401</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08278627994814158</v>
       </c>
       <c r="N3">
-        <v>0.3777166012149422</v>
+        <v>0.03616981408902831</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3907921191509587</v>
       </c>
       <c r="Q3">
-        <v>1.528156252978192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.440276083563106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.679377732834894</v>
+        <v>2.684178036926482</v>
       </c>
       <c r="C4">
-        <v>0.4381592104346339</v>
+        <v>0.4409751342496691</v>
       </c>
       <c r="D4">
-        <v>0.2406496220932581</v>
+        <v>0.2379326901915277</v>
       </c>
       <c r="E4">
-        <v>0.06404385377541999</v>
+        <v>0.06256593809684219</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3931000196905359</v>
+        <v>0.3541544064717428</v>
       </c>
       <c r="H4">
-        <v>0.006483207829263954</v>
+        <v>0.005338867107420486</v>
       </c>
       <c r="I4">
-        <v>0.005527224372080308</v>
+        <v>0.004027796440795761</v>
       </c>
       <c r="J4">
-        <v>0.3494300613654389</v>
+        <v>0.3601073208223369</v>
       </c>
       <c r="K4">
-        <v>0.3343431857541059</v>
+        <v>0.307567445799954</v>
       </c>
       <c r="L4">
-        <v>0.03507958335622519</v>
+        <v>0.1538589329503672</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.08518766961456059</v>
       </c>
       <c r="N4">
-        <v>0.3485126876979336</v>
+        <v>0.03462904535443379</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3605237748335526</v>
       </c>
       <c r="Q4">
-        <v>1.511841105097716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.4290610225694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.570673147542777</v>
+        <v>2.575308793389127</v>
       </c>
       <c r="C5">
-        <v>0.4251935869346823</v>
+        <v>0.4260059979411892</v>
       </c>
       <c r="D5">
-        <v>0.2364832445114757</v>
+        <v>0.2339561781279968</v>
       </c>
       <c r="E5">
-        <v>0.06344752763262029</v>
+        <v>0.06205918129442978</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3897084361087266</v>
+        <v>0.3518474688198054</v>
       </c>
       <c r="H5">
-        <v>0.00710572375432425</v>
+        <v>0.005866950162401574</v>
       </c>
       <c r="I5">
-        <v>0.006137849004196561</v>
+        <v>0.004519667058581867</v>
       </c>
       <c r="J5">
-        <v>0.3491719795921426</v>
+        <v>0.3593053521535268</v>
       </c>
       <c r="K5">
-        <v>0.3366934187074175</v>
+        <v>0.3100725841886813</v>
       </c>
       <c r="L5">
-        <v>0.03445509930997126</v>
+        <v>0.1553482893138103</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.08624546049509174</v>
       </c>
       <c r="N5">
-        <v>0.336846884848029</v>
+        <v>0.03400471513970871</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3484299489667393</v>
       </c>
       <c r="Q5">
-        <v>1.504021095456991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.423297307851229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.552604226125766</v>
+        <v>2.557208582445583</v>
       </c>
       <c r="C6">
-        <v>0.4239266458078248</v>
+        <v>0.4244163421148244</v>
       </c>
       <c r="D6">
-        <v>0.2356975304610671</v>
+        <v>0.2332052521891086</v>
       </c>
       <c r="E6">
-        <v>0.06330776176783459</v>
+        <v>0.06193634799931935</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3885389857847699</v>
+        <v>0.3508992434991285</v>
       </c>
       <c r="H6">
-        <v>0.007216338750592743</v>
+        <v>0.005960989766424341</v>
       </c>
       <c r="I6">
-        <v>0.006346121471323407</v>
+        <v>0.004723836309807439</v>
       </c>
       <c r="J6">
-        <v>0.3488133023738911</v>
+        <v>0.3588594723425871</v>
       </c>
       <c r="K6">
-        <v>0.3366927638297632</v>
+        <v>0.3101325549348495</v>
       </c>
       <c r="L6">
-        <v>0.03435788825111352</v>
+        <v>0.1554034387841625</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08635285025118389</v>
       </c>
       <c r="N6">
-        <v>0.3351736466136401</v>
+        <v>0.03390872621520913</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3466810785876788</v>
       </c>
       <c r="Q6">
-        <v>1.500775789828253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.420495926733608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.677881197140493</v>
+        <v>2.682655968959466</v>
       </c>
       <c r="C7">
-        <v>0.4404052375616061</v>
+        <v>0.4428078224744922</v>
       </c>
       <c r="D7">
-        <v>0.2403323756647637</v>
+        <v>0.2376479244079803</v>
       </c>
       <c r="E7">
-        <v>0.0639254554240889</v>
+        <v>0.0624566433047189</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3913784956163937</v>
+        <v>0.3549840171705725</v>
       </c>
       <c r="H7">
-        <v>0.006500657367999929</v>
+        <v>0.005359544411344341</v>
       </c>
       <c r="I7">
-        <v>0.005801077572842317</v>
+        <v>0.00434679876522992</v>
       </c>
       <c r="J7">
-        <v>0.3485514705157229</v>
+        <v>0.3552182410772389</v>
       </c>
       <c r="K7">
-        <v>0.3332942855830758</v>
+        <v>0.3062577945192757</v>
       </c>
       <c r="L7">
-        <v>0.0350898515487863</v>
+        <v>0.1531709324748913</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.08489669875740713</v>
       </c>
       <c r="N7">
-        <v>0.3490740776494476</v>
+        <v>0.03462621816261269</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3609538441075841</v>
       </c>
       <c r="Q7">
-        <v>1.506350539192965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.420956158783213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.229641270838101</v>
+        <v>3.234940404273118</v>
       </c>
       <c r="C8">
-        <v>0.5111705187877078</v>
+        <v>0.5231888640119564</v>
       </c>
       <c r="D8">
-        <v>0.2612971362007812</v>
+        <v>0.2576921885716814</v>
       </c>
       <c r="E8">
-        <v>0.06672449675923708</v>
+        <v>0.06481499448036843</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4066323702246422</v>
+        <v>0.3706020547317621</v>
       </c>
       <c r="H8">
-        <v>0.003867330062180097</v>
+        <v>0.00314416838867837</v>
       </c>
       <c r="I8">
-        <v>0.003656567816451961</v>
+        <v>0.002801364336384893</v>
       </c>
       <c r="J8">
-        <v>0.3489921622775682</v>
+        <v>0.3489356803343213</v>
       </c>
       <c r="K8">
-        <v>0.3202093748658683</v>
+        <v>0.2915975531444523</v>
       </c>
       <c r="L8">
-        <v>0.03827177828340211</v>
+        <v>0.1447228292780185</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0800369130304821</v>
       </c>
       <c r="N8">
-        <v>0.4099172220949612</v>
+        <v>0.03778401395295106</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.4237695475465273</v>
       </c>
       <c r="Q8">
-        <v>1.540047017799907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.437075388899942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.308847976920219</v>
+        <v>4.314083950879194</v>
       </c>
       <c r="C9">
-        <v>0.6471504758598314</v>
+        <v>0.6807011863529908</v>
       </c>
       <c r="D9">
-        <v>0.3039331589989587</v>
+        <v>0.2983292887128357</v>
       </c>
       <c r="E9">
-        <v>0.07230530336892294</v>
+        <v>0.0694954672152317</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4440379853887322</v>
+        <v>0.3995648050220808</v>
       </c>
       <c r="H9">
-        <v>0.0008032433716749221</v>
+        <v>0.000601055095396541</v>
       </c>
       <c r="I9">
-        <v>0.001142796509141952</v>
+        <v>0.001031672484678836</v>
       </c>
       <c r="J9">
-        <v>0.3543391807953356</v>
+        <v>0.353366372944862</v>
       </c>
       <c r="K9">
-        <v>0.2998287737862668</v>
+        <v>0.2685333772766398</v>
       </c>
       <c r="L9">
-        <v>0.04441261794830176</v>
+        <v>0.1311070512871453</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07590652193524328</v>
       </c>
       <c r="N9">
-        <v>0.5288546064091548</v>
+        <v>0.04395161433161476</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.5472949565846505</v>
       </c>
       <c r="Q9">
-        <v>1.631325121447844</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.500194640457011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.100780958668111</v>
+        <v>5.104898497003944</v>
       </c>
       <c r="C10">
-        <v>0.7548456410948745</v>
+        <v>0.801530799347546</v>
       </c>
       <c r="D10">
-        <v>0.3307135188413639</v>
+        <v>0.323901127866165</v>
       </c>
       <c r="E10">
-        <v>0.07435792387729023</v>
+        <v>0.07103753891235876</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4658093633575362</v>
+        <v>0.4308867842131008</v>
       </c>
       <c r="H10">
-        <v>0.000223573036723046</v>
+        <v>0.0002029501735867356</v>
       </c>
       <c r="I10">
-        <v>0.0008923089760761727</v>
+        <v>0.00110098285136484</v>
       </c>
       <c r="J10">
-        <v>0.355725788788817</v>
+        <v>0.3321826988286816</v>
       </c>
       <c r="K10">
-        <v>0.2825225942208043</v>
+        <v>0.2479756614353157</v>
       </c>
       <c r="L10">
-        <v>0.04984589636840298</v>
+        <v>0.1201253985358548</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07358579991284309</v>
       </c>
       <c r="N10">
-        <v>0.6037182150917175</v>
+        <v>0.04943282427030482</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.6244167532218228</v>
       </c>
       <c r="Q10">
-        <v>1.680915166132337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.514120117801042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.457879378539189</v>
+        <v>5.461223597726246</v>
       </c>
       <c r="C11">
-        <v>0.8563349726286447</v>
+        <v>0.8953189852147432</v>
       </c>
       <c r="D11">
-        <v>0.2988350303459413</v>
+        <v>0.2932607132828338</v>
       </c>
       <c r="E11">
-        <v>0.06101823916523408</v>
+        <v>0.0585381771005089</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4059269598778457</v>
+        <v>0.4076787955216332</v>
       </c>
       <c r="H11">
-        <v>0.0187694302682786</v>
+        <v>0.01876021617592372</v>
       </c>
       <c r="I11">
-        <v>0.001471533480082776</v>
+        <v>0.00182487883208271</v>
       </c>
       <c r="J11">
-        <v>0.3209036704340349</v>
+        <v>0.2668689942831222</v>
       </c>
       <c r="K11">
-        <v>0.2411447567656673</v>
+        <v>0.2112073346372121</v>
       </c>
       <c r="L11">
-        <v>0.06517862577857514</v>
+        <v>0.106380656151738</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0609967438823702</v>
       </c>
       <c r="N11">
-        <v>0.5242970127213198</v>
+        <v>0.06533534655952522</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.5401308479974176</v>
       </c>
       <c r="Q11">
-        <v>1.481279818146703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.307579103634765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.591903198084594</v>
+        <v>5.59500994738903</v>
       </c>
       <c r="C12">
-        <v>0.9182103553373224</v>
+        <v>0.9482237330916234</v>
       </c>
       <c r="D12">
-        <v>0.2680225185189329</v>
+        <v>0.2635468312902702</v>
       </c>
       <c r="E12">
-        <v>0.05316381777082668</v>
+        <v>0.05128720203325665</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3559327852953871</v>
+        <v>0.3749520552978112</v>
       </c>
       <c r="H12">
-        <v>0.05744659940370411</v>
+        <v>0.05743663809927568</v>
       </c>
       <c r="I12">
-        <v>0.001490458954708451</v>
+        <v>0.00184607333534359</v>
       </c>
       <c r="J12">
-        <v>0.2936289525841573</v>
+        <v>0.2353229274744422</v>
       </c>
       <c r="K12">
-        <v>0.215024641781719</v>
+        <v>0.1904188520799348</v>
       </c>
       <c r="L12">
-        <v>0.08355351618130413</v>
+        <v>0.09953792958025431</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05270780260168806</v>
       </c>
       <c r="N12">
-        <v>0.4457599560818011</v>
+        <v>0.08392239072447794</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.4578558025687443</v>
       </c>
       <c r="Q12">
-        <v>1.31826712890097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.15667585112385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.56061764238359</v>
+        <v>5.563998753716817</v>
       </c>
       <c r="C13">
-        <v>0.9563813204897826</v>
+        <v>0.9774374671036981</v>
       </c>
       <c r="D13">
-        <v>0.2359557754046051</v>
+        <v>0.2324832808141366</v>
       </c>
       <c r="E13">
-        <v>0.04886561695133285</v>
+        <v>0.04747032899769654</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3079126340710161</v>
+        <v>0.3258484667011885</v>
       </c>
       <c r="H13">
-        <v>0.1132230918039312</v>
+        <v>0.1132018578063452</v>
       </c>
       <c r="I13">
-        <v>0.001409994451993413</v>
+        <v>0.001745474977189687</v>
       </c>
       <c r="J13">
-        <v>0.2691193923489834</v>
+        <v>0.2246595065340458</v>
       </c>
       <c r="K13">
-        <v>0.197197613935133</v>
+        <v>0.1786435002110585</v>
       </c>
       <c r="L13">
-        <v>0.1050539499687559</v>
+        <v>0.09613418142637897</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04700290649541383</v>
       </c>
       <c r="N13">
-        <v>0.3650105347218755</v>
+        <v>0.1054858634960283</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3741765011813243</v>
       </c>
       <c r="Q13">
-        <v>1.165123137100366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.034341491703884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.463788239602195</v>
+        <v>5.467563383731658</v>
       </c>
       <c r="C14">
-        <v>0.9732532845064554</v>
+        <v>0.9880076659118799</v>
       </c>
       <c r="D14">
-        <v>0.213275617341111</v>
+        <v>0.2104535920003201</v>
       </c>
       <c r="E14">
-        <v>0.04794077955089859</v>
+        <v>0.04681850344997596</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2754440125439999</v>
+        <v>0.2859738150939037</v>
       </c>
       <c r="H14">
-        <v>0.1626136589921003</v>
+        <v>0.1625749765472904</v>
       </c>
       <c r="I14">
-        <v>0.001411822844402444</v>
+        <v>0.001732677357644263</v>
       </c>
       <c r="J14">
-        <v>0.2532915362097512</v>
+        <v>0.2241742143044725</v>
       </c>
       <c r="K14">
-        <v>0.1888051235338644</v>
+        <v>0.1742328445158439</v>
       </c>
       <c r="L14">
-        <v>0.1222249398226225</v>
+        <v>0.09500001641797318</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04431027077560135</v>
       </c>
       <c r="N14">
-        <v>0.3089534500350766</v>
+        <v>0.122622130867498</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.3164236643142289</v>
       </c>
       <c r="Q14">
-        <v>1.063083894642062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9598705226524515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.404932443415191</v>
+        <v>5.408895682460468</v>
       </c>
       <c r="C15">
-        <v>0.9729955560793826</v>
+        <v>0.9862912595519049</v>
       </c>
       <c r="D15">
-        <v>0.2072836465431038</v>
+        <v>0.2046207215131943</v>
       </c>
       <c r="E15">
-        <v>0.04798868289323899</v>
+        <v>0.04693579035887785</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2672078470214245</v>
+        <v>0.2733931465284769</v>
       </c>
       <c r="H15">
-        <v>0.1751510025647036</v>
+        <v>0.1751017127039489</v>
       </c>
       <c r="I15">
-        <v>0.001519764730699258</v>
+        <v>0.001850576907266088</v>
       </c>
       <c r="J15">
-        <v>0.2496589118857884</v>
+        <v>0.2268597316644829</v>
       </c>
       <c r="K15">
-        <v>0.1878783541318665</v>
+        <v>0.1743028284818298</v>
       </c>
       <c r="L15">
-        <v>0.1262166703779641</v>
+        <v>0.09506508173425199</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04402194018986272</v>
       </c>
       <c r="N15">
-        <v>0.2944581883149198</v>
+        <v>0.1266152703454608</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.3015954894814143</v>
       </c>
       <c r="Q15">
-        <v>1.037977779235902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9443718774416539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.069357567691782</v>
+        <v>5.074121799755062</v>
       </c>
       <c r="C16">
-        <v>0.9186681601553914</v>
+        <v>0.932606030478297</v>
       </c>
       <c r="D16">
-        <v>0.202780412010469</v>
+        <v>0.2001918068862238</v>
       </c>
       <c r="E16">
-        <v>0.04798505024813116</v>
+        <v>0.04704330267401913</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2667582202673273</v>
+        <v>0.2521255199048653</v>
       </c>
       <c r="H16">
-        <v>0.1626267155004371</v>
+        <v>0.1625018980779913</v>
       </c>
       <c r="I16">
-        <v>0.001675485574728519</v>
+        <v>0.001932793324194826</v>
       </c>
       <c r="J16">
-        <v>0.2534202096155198</v>
+        <v>0.2550395009237931</v>
       </c>
       <c r="K16">
-        <v>0.1977608555796326</v>
+        <v>0.1848476789014271</v>
       </c>
       <c r="L16">
-        <v>0.1188000390413109</v>
+        <v>0.09837957412412823</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04730790228711967</v>
       </c>
       <c r="N16">
-        <v>0.2813587001728308</v>
+        <v>0.1194032669200737</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2889907201669075</v>
       </c>
       <c r="Q16">
-        <v>1.044675022128445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.976484374136831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.864067959315719</v>
+        <v>4.869160679018592</v>
       </c>
       <c r="C17">
-        <v>0.8682880728655107</v>
+        <v>0.8852669208814916</v>
       </c>
       <c r="D17">
-        <v>0.211134635277844</v>
+        <v>0.2082993319349811</v>
       </c>
       <c r="E17">
-        <v>0.04813811501081933</v>
+        <v>0.04713153436812889</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.2833813217437324</v>
+        <v>0.2585408477619637</v>
       </c>
       <c r="H17">
-        <v>0.1250220779052569</v>
+        <v>0.1248416854858618</v>
       </c>
       <c r="I17">
-        <v>0.001847896646940406</v>
+        <v>0.002051141349548757</v>
       </c>
       <c r="J17">
-        <v>0.2646277251044751</v>
+        <v>0.2766178533322474</v>
       </c>
       <c r="K17">
-        <v>0.2095853343583194</v>
+        <v>0.1954936319532896</v>
       </c>
       <c r="L17">
-        <v>0.1035584408110566</v>
+        <v>0.1020174215020502</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05102691317574148</v>
       </c>
       <c r="N17">
-        <v>0.3002197780737532</v>
+        <v>0.1042800541926141</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.3090176689339899</v>
       </c>
       <c r="Q17">
-        <v>1.103245028766395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.038948402428872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.746884000429191</v>
+        <v>4.752075688093612</v>
       </c>
       <c r="C18">
-        <v>0.814249869403767</v>
+        <v>0.8373519491318575</v>
       </c>
       <c r="D18">
-        <v>0.2324824119491922</v>
+        <v>0.228998247563041</v>
       </c>
       <c r="E18">
-        <v>0.05027050007027833</v>
+        <v>0.04897251733087216</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3190546468839628</v>
+        <v>0.2862380165891807</v>
       </c>
       <c r="H18">
-        <v>0.07226009204364203</v>
+        <v>0.07206055565077207</v>
       </c>
       <c r="I18">
-        <v>0.001676799676126883</v>
+        <v>0.001809408661952894</v>
       </c>
       <c r="J18">
-        <v>0.2846833012896681</v>
+        <v>0.2995894336086238</v>
       </c>
       <c r="K18">
-        <v>0.2266714980658957</v>
+        <v>0.2095880968600117</v>
       </c>
       <c r="L18">
-        <v>0.08278964275796596</v>
+        <v>0.107206961531106</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05616678148552356</v>
       </c>
       <c r="N18">
-        <v>0.3513472383564817</v>
+        <v>0.08352481832491776</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3623921062242061</v>
       </c>
       <c r="Q18">
-        <v>1.220790498913004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.146317695601752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.708553701817095</v>
+        <v>4.713686737229125</v>
       </c>
       <c r="C19">
-        <v>0.7680760066422181</v>
+        <v>0.7992350939659048</v>
       </c>
       <c r="D19">
-        <v>0.2637563339502691</v>
+        <v>0.2592639292580543</v>
       </c>
       <c r="E19">
-        <v>0.05646225628611745</v>
+        <v>0.05460187505103775</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3675242536308545</v>
+        <v>0.327029528694176</v>
       </c>
       <c r="H19">
-        <v>0.02690178653535469</v>
+        <v>0.02672776822024048</v>
       </c>
       <c r="I19">
-        <v>0.001762238402690741</v>
+        <v>0.001935223380381323</v>
       </c>
       <c r="J19">
-        <v>0.3102238486687483</v>
+        <v>0.3234915047728109</v>
       </c>
       <c r="K19">
-        <v>0.2483928419065453</v>
+        <v>0.2266566891608992</v>
       </c>
       <c r="L19">
-        <v>0.06375955966869284</v>
+        <v>0.1136487346364685</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06255845040988639</v>
       </c>
       <c r="N19">
-        <v>0.4308792070344083</v>
+        <v>0.06426727158796908</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.4452118881934126</v>
       </c>
       <c r="Q19">
-        <v>1.377005513711651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.282410177468407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.892652456008193</v>
+        <v>4.897243074363814</v>
       </c>
       <c r="C20">
-        <v>0.734571051502428</v>
+        <v>0.779469519359111</v>
       </c>
       <c r="D20">
-        <v>0.3226108057133104</v>
+        <v>0.3160739075703702</v>
       </c>
       <c r="E20">
-        <v>0.0734105360439461</v>
+        <v>0.07023710798084792</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4543901767026739</v>
+        <v>0.4083814431547808</v>
       </c>
       <c r="H20">
-        <v>0.0002617694004349858</v>
+        <v>0.0002054196594740709</v>
       </c>
       <c r="I20">
-        <v>0.00164283433588519</v>
+        <v>0.001943811266236217</v>
       </c>
       <c r="J20">
-        <v>0.3523998163553017</v>
+        <v>0.3482510580209492</v>
       </c>
       <c r="K20">
-        <v>0.28356202605897</v>
+        <v>0.2515817251844474</v>
       </c>
       <c r="L20">
-        <v>0.04852503521052043</v>
+        <v>0.1223015959691516</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07338569299323261</v>
       </c>
       <c r="N20">
-        <v>0.585719520141339</v>
+        <v>0.04817774719406387</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.6061756116366865</v>
       </c>
       <c r="Q20">
-        <v>1.649606954362923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.504154086590887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.501020210482011</v>
+        <v>5.50376409599005</v>
       </c>
       <c r="C21">
-        <v>0.8079763463219649</v>
+        <v>0.8564938228005303</v>
       </c>
       <c r="D21">
-        <v>0.3516109070017706</v>
+        <v>0.3443198396967375</v>
       </c>
       <c r="E21">
-        <v>0.07805111749625659</v>
+        <v>0.07437753477721643</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4859129987790567</v>
+        <v>0.4954310453313724</v>
       </c>
       <c r="H21">
-        <v>4.262554712441968E-05</v>
+        <v>5.308765866995913E-05</v>
       </c>
       <c r="I21">
-        <v>0.001792889569537159</v>
+        <v>0.002207122201303591</v>
       </c>
       <c r="J21">
-        <v>0.3610999389183434</v>
+        <v>0.2769550261459841</v>
       </c>
       <c r="K21">
-        <v>0.2781397508485668</v>
+        <v>0.2359014219193405</v>
       </c>
       <c r="L21">
-        <v>0.05130116290401077</v>
+        <v>0.1143043565943298</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07203426631962451</v>
       </c>
       <c r="N21">
-        <v>0.6641801817817168</v>
+        <v>0.05053499786884075</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.685071492311252</v>
       </c>
       <c r="Q21">
-        <v>1.735048483612161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.500960157007654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.898835312151789</v>
+        <v>5.900064642889333</v>
       </c>
       <c r="C22">
-        <v>0.8556817368152565</v>
+        <v>0.905356440381496</v>
       </c>
       <c r="D22">
-        <v>0.3684453754586343</v>
+        <v>0.3608012002431877</v>
       </c>
       <c r="E22">
-        <v>0.08023017949880007</v>
+        <v>0.07631781631603829</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5052780381263631</v>
+        <v>0.5595557673110534</v>
       </c>
       <c r="H22">
-        <v>0.0003193783274222373</v>
+        <v>0.0003040198773147651</v>
       </c>
       <c r="I22">
-        <v>0.001912689329897965</v>
+        <v>0.002253363174769873</v>
       </c>
       <c r="J22">
-        <v>0.366225252089265</v>
+        <v>0.2356679869641169</v>
       </c>
       <c r="K22">
-        <v>0.2743187314903821</v>
+        <v>0.2251500615492361</v>
       </c>
       <c r="L22">
-        <v>0.0535626935555964</v>
+        <v>0.1091397123883837</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0711562468556366</v>
       </c>
       <c r="N22">
-        <v>0.7077587348268253</v>
+        <v>0.05256129636317297</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.728439205636505</v>
       </c>
       <c r="Q22">
-        <v>1.787084115851485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.491314055252502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.686554209846861</v>
+        <v>5.688693026481758</v>
       </c>
       <c r="C23">
-        <v>0.8271896058293464</v>
+        <v>0.8773188911713419</v>
       </c>
       <c r="D23">
-        <v>0.3597487796773891</v>
+        <v>0.3522061539595001</v>
       </c>
       <c r="E23">
-        <v>0.07919350965967986</v>
+        <v>0.07538046119100628</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4968146700608713</v>
+        <v>0.5193994052719404</v>
       </c>
       <c r="H23">
-        <v>0.0001413109071137786</v>
+        <v>0.0001475258148684322</v>
       </c>
       <c r="I23">
-        <v>0.001519409076905731</v>
+        <v>0.001846701641442294</v>
       </c>
       <c r="J23">
-        <v>0.3644484488551569</v>
+        <v>0.2641630189944379</v>
       </c>
       <c r="K23">
-        <v>0.2775066403730868</v>
+        <v>0.2326131823706135</v>
       </c>
       <c r="L23">
-        <v>0.05232679595728662</v>
+        <v>0.1124174187039966</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07236631236807334</v>
       </c>
       <c r="N23">
-        <v>0.6836066936589873</v>
+        <v>0.05148114257684</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.7047338195127821</v>
       </c>
       <c r="Q23">
-        <v>1.765287907227673</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.509257212980089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.883098560713506</v>
+        <v>4.88768868147082</v>
       </c>
       <c r="C24">
-        <v>0.7246339100837815</v>
+        <v>0.7700609870666426</v>
       </c>
       <c r="D24">
-        <v>0.3267009576862137</v>
+        <v>0.3200161204581491</v>
       </c>
       <c r="E24">
-        <v>0.0750644324994294</v>
+        <v>0.07178190665305628</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4632740705174001</v>
+        <v>0.415769662187742</v>
       </c>
       <c r="H24">
-        <v>0.0001277889177191405</v>
+        <v>7.507262183303887E-05</v>
       </c>
       <c r="I24">
-        <v>0.001149210191901062</v>
+        <v>0.001351774285765828</v>
       </c>
       <c r="J24">
-        <v>0.3570534831428773</v>
+        <v>0.352980531167546</v>
       </c>
       <c r="K24">
-        <v>0.2887388570341329</v>
+        <v>0.2558143121414851</v>
       </c>
       <c r="L24">
-        <v>0.04772308543797443</v>
+        <v>0.1238785682933194</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07497986102734622</v>
       </c>
       <c r="N24">
-        <v>0.5939488827240069</v>
+        <v>0.04728447329484986</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.6148596031727038</v>
       </c>
       <c r="Q24">
-        <v>1.678178450503509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.529713507469353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.016995037718118</v>
+        <v>4.022426233675162</v>
       </c>
       <c r="C25">
-        <v>0.6146624931813562</v>
+        <v>0.6429577986904746</v>
       </c>
       <c r="D25">
-        <v>0.2918044579608647</v>
+        <v>0.2867396414466157</v>
       </c>
       <c r="E25">
-        <v>0.07060962009292204</v>
+        <v>0.06805304299149029</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4303858432162571</v>
+        <v>0.3849058521661419</v>
       </c>
       <c r="H25">
-        <v>0.001393952530339249</v>
+        <v>0.001079425523821453</v>
       </c>
       <c r="I25">
-        <v>0.002021131154905653</v>
+        <v>0.001828932685928208</v>
       </c>
       <c r="J25">
-        <v>0.3510042522414665</v>
+        <v>0.3561118227277262</v>
       </c>
       <c r="K25">
-        <v>0.3030723393420445</v>
+        <v>0.2733254829683336</v>
       </c>
       <c r="L25">
-        <v>0.04279202130237536</v>
+        <v>0.1341650811040118</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07612329246122052</v>
       </c>
       <c r="N25">
-        <v>0.4978755941704094</v>
+        <v>0.04235377289517039</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.5151879229564145</v>
       </c>
       <c r="Q25">
-        <v>1.595196217844745</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.476983199306602</v>
       </c>
     </row>
   </sheetData>
